--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.70299561596638</v>
+        <v>20.7029956159664</v>
       </c>
       <c r="C2">
-        <v>14.22901840291185</v>
+        <v>14.22901840291192</v>
       </c>
       <c r="D2">
-        <v>3.897617432870329</v>
+        <v>3.897617432870316</v>
       </c>
       <c r="F2">
-        <v>21.28983831882207</v>
+        <v>21.28983831882206</v>
       </c>
       <c r="G2">
-        <v>16.08179518327719</v>
+        <v>16.0817951832772</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.19601632303389</v>
+        <v>18.19601632303394</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,25 +438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.28547288558331</v>
+        <v>19.28547288558321</v>
       </c>
       <c r="C3">
-        <v>13.32347238532499</v>
+        <v>13.32347238532492</v>
       </c>
       <c r="D3">
-        <v>3.899165863209383</v>
+        <v>3.899165863209613</v>
       </c>
       <c r="F3">
-        <v>20.65191154257436</v>
+        <v>20.65191154257448</v>
       </c>
       <c r="G3">
-        <v>15.86609575181028</v>
+        <v>15.86609575181046</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.00487417705775</v>
+        <v>17.00487417705764</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -464,19 +464,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.36687669592297</v>
+        <v>18.36687669592295</v>
       </c>
       <c r="C4">
-        <v>12.73816587891647</v>
+        <v>12.73816587891657</v>
       </c>
       <c r="D4">
-        <v>3.901444543247067</v>
+        <v>3.901444543247131</v>
       </c>
       <c r="F4">
-        <v>20.2922265764467</v>
+        <v>20.29222657644668</v>
       </c>
       <c r="G4">
-        <v>15.76542467296129</v>
+        <v>15.76542467296127</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.98028904866583</v>
+        <v>17.98028904866592</v>
       </c>
       <c r="C5">
-        <v>12.49225704665108</v>
+        <v>12.49225704665113</v>
       </c>
       <c r="D5">
-        <v>3.902692779065225</v>
+        <v>3.902692779065229</v>
       </c>
       <c r="F5">
-        <v>20.1536401958429</v>
+        <v>20.15364019584261</v>
       </c>
       <c r="G5">
-        <v>15.73201772547689</v>
+        <v>15.73201772547662</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.9101959396276</v>
+        <v>15.9101959396277</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -516,25 +516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91535293876554</v>
+        <v>17.91535293876558</v>
       </c>
       <c r="C6">
-        <v>12.45097722069851</v>
+        <v>12.4509772206985</v>
       </c>
       <c r="D6">
         <v>3.90291896631681</v>
       </c>
       <c r="F6">
-        <v>20.13110793883876</v>
+        <v>20.13110793883877</v>
       </c>
       <c r="G6">
-        <v>15.72691912603462</v>
+        <v>15.72691912603463</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.85579277444133</v>
+        <v>15.85579277444134</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36171280892359</v>
+        <v>18.36171280892368</v>
       </c>
       <c r="C7">
         <v>12.73487941635711</v>
       </c>
       <c r="D7">
-        <v>3.901460100843337</v>
+        <v>3.901460100843152</v>
       </c>
       <c r="F7">
-        <v>20.29032531723556</v>
+        <v>20.29032531723538</v>
       </c>
       <c r="G7">
-        <v>15.76494380687811</v>
+        <v>15.76494380687789</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.2298710695391</v>
+        <v>16.22987106953917</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22416767834381</v>
+        <v>20.22416767834378</v>
       </c>
       <c r="C8">
-        <v>13.92284728500884</v>
+        <v>13.92284728500888</v>
       </c>
       <c r="D8">
-        <v>3.897866634274842</v>
+        <v>3.897866634274953</v>
       </c>
       <c r="F8">
-        <v>21.06321438382088</v>
+        <v>21.06321438382097</v>
       </c>
       <c r="G8">
-        <v>16.00061537033061</v>
+        <v>16.00061537033075</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.79342582861473</v>
+        <v>17.79342582861474</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.49965766446386</v>
+        <v>23.49965766446375</v>
       </c>
       <c r="C9">
-        <v>16.0218837983299</v>
+        <v>16.02188379832987</v>
       </c>
       <c r="D9">
-        <v>3.90208851144291</v>
+        <v>3.902088511442909</v>
       </c>
       <c r="F9">
-        <v>22.83386344229346</v>
+        <v>22.83386344229356</v>
       </c>
       <c r="G9">
-        <v>16.72958472259082</v>
+        <v>16.72958472259094</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.55127360489599</v>
+        <v>20.55127360489587</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68521464578646</v>
+        <v>25.68521464578649</v>
       </c>
       <c r="C10">
-        <v>17.42712697407901</v>
+        <v>17.42712697407899</v>
       </c>
       <c r="D10">
-        <v>3.913226451053938</v>
+        <v>3.913226451053937</v>
       </c>
       <c r="F10">
         <v>24.29067684521644</v>
       </c>
       <c r="G10">
-        <v>17.44531037874157</v>
+        <v>17.44531037874153</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.39548263121234</v>
+        <v>22.39548263121238</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.63359032402769</v>
+        <v>26.63359032402783</v>
       </c>
       <c r="C11">
-        <v>18.03772901951062</v>
+        <v>18.0377290195107</v>
       </c>
       <c r="D11">
         <v>3.920343971928801</v>
       </c>
       <c r="F11">
-        <v>24.9873954811497</v>
+        <v>24.98739548114967</v>
       </c>
       <c r="G11">
-        <v>17.81309359045385</v>
+        <v>17.81309359045378</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.19649831391675</v>
+        <v>23.19649831391689</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.9863096431224</v>
+        <v>26.98630964312234</v>
       </c>
       <c r="C12">
-        <v>18.26493089225296</v>
+        <v>18.26493089225295</v>
       </c>
       <c r="D12">
-        <v>3.923363715045715</v>
+        <v>3.923363715045836</v>
       </c>
       <c r="F12">
-        <v>25.25614968908242</v>
+        <v>25.25614968908239</v>
       </c>
       <c r="G12">
-        <v>17.95864830525683</v>
+        <v>17.95864830525681</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.49451372006599</v>
+        <v>23.49451372006594</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.91062724144242</v>
+        <v>26.91062724144258</v>
       </c>
       <c r="C13">
-        <v>18.21617594828729</v>
+        <v>18.21617594828732</v>
       </c>
       <c r="D13">
-        <v>3.92269841488198</v>
+        <v>3.922698414881975</v>
       </c>
       <c r="F13">
-        <v>25.19804884100919</v>
+        <v>25.19804884100933</v>
       </c>
       <c r="G13">
-        <v>17.92701775459086</v>
+        <v>17.92701775459095</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.43056459257651</v>
+        <v>23.43056459257661</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.66273612022174</v>
+        <v>26.66273612022179</v>
       </c>
       <c r="C14">
-        <v>18.05650099652728</v>
+        <v>18.05650099652757</v>
       </c>
       <c r="D14">
-        <v>3.920585721473554</v>
+        <v>3.920585721473393</v>
       </c>
       <c r="F14">
-        <v>25.00940709136805</v>
+        <v>25.00940709136803</v>
       </c>
       <c r="G14">
-        <v>17.82494135384863</v>
+        <v>17.82494135384857</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.22112181100016</v>
+        <v>23.22112181100028</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,25 +750,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51006655945979</v>
+        <v>26.51006655945983</v>
       </c>
       <c r="C15">
-        <v>17.95817517539306</v>
+        <v>17.95817517539302</v>
       </c>
       <c r="D15">
-        <v>3.919334837940819</v>
+        <v>3.919334837940885</v>
       </c>
       <c r="F15">
-        <v>24.89450113795348</v>
+        <v>24.89450113795349</v>
       </c>
       <c r="G15">
-        <v>17.7632410235938</v>
+        <v>17.76324102359378</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.09214477040693</v>
+        <v>23.09214477040696</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.62232880595619</v>
+        <v>25.62232880595622</v>
       </c>
       <c r="C16">
-        <v>17.38665441561999</v>
+        <v>17.38665441561981</v>
       </c>
       <c r="D16">
-        <v>3.912805015362415</v>
+        <v>3.912805015362523</v>
       </c>
       <c r="F16">
-        <v>24.24583086694032</v>
+        <v>24.24583086694025</v>
       </c>
       <c r="G16">
-        <v>17.42214274394155</v>
+        <v>17.42214274394152</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.34238299294286</v>
+        <v>22.34238299294285</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.06611364906207</v>
+        <v>25.066113649062</v>
       </c>
       <c r="C17">
-        <v>17.02877380027234</v>
+        <v>17.0287738002723</v>
       </c>
       <c r="D17">
-        <v>3.909344323658824</v>
+        <v>3.909344323658865</v>
       </c>
       <c r="F17">
-        <v>23.85661464282209</v>
+        <v>23.85661464282207</v>
       </c>
       <c r="G17">
-        <v>17.22385600178918</v>
+        <v>17.22385600178921</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.87281104317977</v>
+        <v>21.87281104317971</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,25 +828,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.74186648253742</v>
+        <v>24.74186648253753</v>
       </c>
       <c r="C18">
-        <v>16.82022684396138</v>
+        <v>16.82022684396134</v>
       </c>
       <c r="D18">
-        <v>3.90754487260429</v>
+        <v>3.907544872604248</v>
       </c>
       <c r="F18">
-        <v>23.63594508095162</v>
+        <v>23.63594508095152</v>
       </c>
       <c r="G18">
-        <v>17.11376690602196</v>
+        <v>17.11376690602183</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.59914668388367</v>
+        <v>21.59914668388376</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,25 +854,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63133348952164</v>
+        <v>24.63133348952158</v>
       </c>
       <c r="C19">
-        <v>16.74914927623756</v>
+        <v>16.74914927623759</v>
       </c>
       <c r="D19">
-        <v>3.906967581300969</v>
+        <v>3.906967581301001</v>
       </c>
       <c r="F19">
-        <v>23.56177889267301</v>
+        <v>23.56177889267295</v>
       </c>
       <c r="G19">
-        <v>17.07716596546621</v>
+        <v>17.07716596546615</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.50586987390311</v>
+        <v>21.50586987390308</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.1257702469946</v>
+        <v>25.12577024699457</v>
       </c>
       <c r="C20">
-        <v>17.06714992298311</v>
+        <v>17.0671499229831</v>
       </c>
       <c r="D20">
-        <v>3.909692745216394</v>
+        <v>3.909692745216467</v>
       </c>
       <c r="F20">
-        <v>23.89771634765869</v>
+        <v>23.89771634765872</v>
       </c>
       <c r="G20">
-        <v>17.24455249016756</v>
+        <v>17.2445524901676</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.92316721429758</v>
+        <v>21.92316721429754</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,25 +906,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73572018577575</v>
+        <v>26.7357201857757</v>
       </c>
       <c r="C21">
-        <v>18.10350963297386</v>
+        <v>18.10350963297388</v>
       </c>
       <c r="D21">
-        <v>3.921197209130484</v>
+        <v>3.921197209130423</v>
       </c>
       <c r="F21">
-        <v>25.06468172422611</v>
+        <v>25.06468172422603</v>
       </c>
       <c r="G21">
-        <v>17.85475149305723</v>
+        <v>17.85475149305718</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.28278318829828</v>
+        <v>23.28278318829829</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,25 +932,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.7506494456107</v>
+        <v>27.75064944561058</v>
       </c>
       <c r="C22">
-        <v>18.75745620529502</v>
+        <v>18.75745620529498</v>
       </c>
       <c r="D22">
-        <v>3.930624032050145</v>
+        <v>3.930624032050247</v>
       </c>
       <c r="F22">
-        <v>25.85609464150369</v>
+        <v>25.85609464150366</v>
       </c>
       <c r="G22">
-        <v>18.29026799171044</v>
+        <v>18.29026799171046</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.14048656194856</v>
+        <v>24.14048656194844</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -958,25 +958,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21230805497149</v>
+        <v>27.21230805497148</v>
       </c>
       <c r="C23">
-        <v>18.4105346877035</v>
+        <v>18.41053468770358</v>
       </c>
       <c r="D23">
-        <v>3.925407370811262</v>
+        <v>3.925407370811267</v>
       </c>
       <c r="F23">
-        <v>25.43105259993376</v>
+        <v>25.43105259993375</v>
       </c>
       <c r="G23">
-        <v>18.05439685571585</v>
+        <v>18.05439685571582</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.68548908561753</v>
+        <v>23.68548908561757</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.09881344090841</v>
+        <v>25.09881344090836</v>
       </c>
       <c r="C24">
-        <v>17.04980879614848</v>
+        <v>17.04980879614853</v>
       </c>
       <c r="D24">
-        <v>3.909534633756175</v>
+        <v>3.909534633756226</v>
       </c>
       <c r="F24">
-        <v>23.87912462527143</v>
+        <v>23.87912462527142</v>
       </c>
       <c r="G24">
-        <v>17.23518344976987</v>
+        <v>17.23518344976986</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.90041272822682</v>
+        <v>21.90041272822676</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,25 +1010,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301794499637</v>
+        <v>22.65301794499631</v>
       </c>
       <c r="C25">
-        <v>15.47839557358143</v>
+        <v>15.47839557358158</v>
       </c>
       <c r="D25">
-        <v>3.89962861204291</v>
+        <v>3.899628612042914</v>
       </c>
       <c r="F25">
-        <v>22.32747316185444</v>
+        <v>22.3274731618544</v>
       </c>
       <c r="G25">
-        <v>16.50187320381154</v>
+        <v>16.50187320381151</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.83763995565629</v>
+        <v>19.83763995565625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.7029956159664</v>
+        <v>20.70299561596638</v>
       </c>
       <c r="C2">
-        <v>14.22901840291192</v>
+        <v>14.22901840291185</v>
       </c>
       <c r="D2">
-        <v>3.897617432870316</v>
+        <v>3.897617432870329</v>
       </c>
       <c r="F2">
-        <v>21.28983831882206</v>
+        <v>21.28983831882207</v>
       </c>
       <c r="G2">
-        <v>16.0817951832772</v>
+        <v>16.08179518327719</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.19601632303394</v>
+        <v>18.19601632303389</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,25 +438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.28547288558321</v>
+        <v>19.28547288558331</v>
       </c>
       <c r="C3">
-        <v>13.32347238532492</v>
+        <v>13.32347238532499</v>
       </c>
       <c r="D3">
-        <v>3.899165863209613</v>
+        <v>3.899165863209383</v>
       </c>
       <c r="F3">
-        <v>20.65191154257448</v>
+        <v>20.65191154257436</v>
       </c>
       <c r="G3">
-        <v>15.86609575181046</v>
+        <v>15.86609575181028</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.00487417705764</v>
+        <v>17.00487417705775</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -464,19 +464,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.36687669592295</v>
+        <v>18.36687669592297</v>
       </c>
       <c r="C4">
-        <v>12.73816587891657</v>
+        <v>12.73816587891647</v>
       </c>
       <c r="D4">
-        <v>3.901444543247131</v>
+        <v>3.901444543247067</v>
       </c>
       <c r="F4">
-        <v>20.29222657644668</v>
+        <v>20.2922265764467</v>
       </c>
       <c r="G4">
-        <v>15.76542467296127</v>
+        <v>15.76542467296129</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.98028904866592</v>
+        <v>17.98028904866583</v>
       </c>
       <c r="C5">
-        <v>12.49225704665113</v>
+        <v>12.49225704665108</v>
       </c>
       <c r="D5">
-        <v>3.902692779065229</v>
+        <v>3.902692779065225</v>
       </c>
       <c r="F5">
-        <v>20.15364019584261</v>
+        <v>20.1536401958429</v>
       </c>
       <c r="G5">
-        <v>15.73201772547662</v>
+        <v>15.73201772547689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.9101959396277</v>
+        <v>15.9101959396276</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -516,25 +516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91535293876558</v>
+        <v>17.91535293876554</v>
       </c>
       <c r="C6">
-        <v>12.4509772206985</v>
+        <v>12.45097722069851</v>
       </c>
       <c r="D6">
         <v>3.90291896631681</v>
       </c>
       <c r="F6">
-        <v>20.13110793883877</v>
+        <v>20.13110793883876</v>
       </c>
       <c r="G6">
-        <v>15.72691912603463</v>
+        <v>15.72691912603462</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.85579277444134</v>
+        <v>15.85579277444133</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36171280892368</v>
+        <v>18.36171280892359</v>
       </c>
       <c r="C7">
         <v>12.73487941635711</v>
       </c>
       <c r="D7">
-        <v>3.901460100843152</v>
+        <v>3.901460100843337</v>
       </c>
       <c r="F7">
-        <v>20.29032531723538</v>
+        <v>20.29032531723556</v>
       </c>
       <c r="G7">
-        <v>15.76494380687789</v>
+        <v>15.76494380687811</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.22987106953917</v>
+        <v>16.2298710695391</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22416767834378</v>
+        <v>20.22416767834381</v>
       </c>
       <c r="C8">
-        <v>13.92284728500888</v>
+        <v>13.92284728500884</v>
       </c>
       <c r="D8">
-        <v>3.897866634274953</v>
+        <v>3.897866634274842</v>
       </c>
       <c r="F8">
-        <v>21.06321438382097</v>
+        <v>21.06321438382088</v>
       </c>
       <c r="G8">
-        <v>16.00061537033075</v>
+        <v>16.00061537033061</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.79342582861474</v>
+        <v>17.79342582861473</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.49965766446375</v>
+        <v>23.49965766446386</v>
       </c>
       <c r="C9">
-        <v>16.02188379832987</v>
+        <v>16.0218837983299</v>
       </c>
       <c r="D9">
-        <v>3.902088511442909</v>
+        <v>3.90208851144291</v>
       </c>
       <c r="F9">
-        <v>22.83386344229356</v>
+        <v>22.83386344229346</v>
       </c>
       <c r="G9">
-        <v>16.72958472259094</v>
+        <v>16.72958472259082</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.55127360489587</v>
+        <v>20.55127360489599</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68521464578649</v>
+        <v>25.68521464578646</v>
       </c>
       <c r="C10">
-        <v>17.42712697407899</v>
+        <v>17.42712697407901</v>
       </c>
       <c r="D10">
-        <v>3.913226451053937</v>
+        <v>3.913226451053938</v>
       </c>
       <c r="F10">
         <v>24.29067684521644</v>
       </c>
       <c r="G10">
-        <v>17.44531037874153</v>
+        <v>17.44531037874157</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.39548263121238</v>
+        <v>22.39548263121234</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.63359032402783</v>
+        <v>26.63359032402769</v>
       </c>
       <c r="C11">
-        <v>18.0377290195107</v>
+        <v>18.03772901951062</v>
       </c>
       <c r="D11">
         <v>3.920343971928801</v>
       </c>
       <c r="F11">
-        <v>24.98739548114967</v>
+        <v>24.9873954811497</v>
       </c>
       <c r="G11">
-        <v>17.81309359045378</v>
+        <v>17.81309359045385</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.19649831391689</v>
+        <v>23.19649831391675</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.98630964312234</v>
+        <v>26.9863096431224</v>
       </c>
       <c r="C12">
-        <v>18.26493089225295</v>
+        <v>18.26493089225296</v>
       </c>
       <c r="D12">
-        <v>3.923363715045836</v>
+        <v>3.923363715045715</v>
       </c>
       <c r="F12">
-        <v>25.25614968908239</v>
+        <v>25.25614968908242</v>
       </c>
       <c r="G12">
-        <v>17.95864830525681</v>
+        <v>17.95864830525683</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.49451372006594</v>
+        <v>23.49451372006599</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.91062724144258</v>
+        <v>26.91062724144242</v>
       </c>
       <c r="C13">
-        <v>18.21617594828732</v>
+        <v>18.21617594828729</v>
       </c>
       <c r="D13">
-        <v>3.922698414881975</v>
+        <v>3.92269841488198</v>
       </c>
       <c r="F13">
-        <v>25.19804884100933</v>
+        <v>25.19804884100919</v>
       </c>
       <c r="G13">
-        <v>17.92701775459095</v>
+        <v>17.92701775459086</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.43056459257661</v>
+        <v>23.43056459257651</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.66273612022179</v>
+        <v>26.66273612022174</v>
       </c>
       <c r="C14">
-        <v>18.05650099652757</v>
+        <v>18.05650099652728</v>
       </c>
       <c r="D14">
-        <v>3.920585721473393</v>
+        <v>3.920585721473554</v>
       </c>
       <c r="F14">
-        <v>25.00940709136803</v>
+        <v>25.00940709136805</v>
       </c>
       <c r="G14">
-        <v>17.82494135384857</v>
+        <v>17.82494135384863</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.22112181100028</v>
+        <v>23.22112181100016</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,25 +750,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51006655945983</v>
+        <v>26.51006655945979</v>
       </c>
       <c r="C15">
-        <v>17.95817517539302</v>
+        <v>17.95817517539306</v>
       </c>
       <c r="D15">
-        <v>3.919334837940885</v>
+        <v>3.919334837940819</v>
       </c>
       <c r="F15">
-        <v>24.89450113795349</v>
+        <v>24.89450113795348</v>
       </c>
       <c r="G15">
-        <v>17.76324102359378</v>
+        <v>17.7632410235938</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.09214477040696</v>
+        <v>23.09214477040693</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.62232880595622</v>
+        <v>25.62232880595619</v>
       </c>
       <c r="C16">
-        <v>17.38665441561981</v>
+        <v>17.38665441561999</v>
       </c>
       <c r="D16">
-        <v>3.912805015362523</v>
+        <v>3.912805015362415</v>
       </c>
       <c r="F16">
-        <v>24.24583086694025</v>
+        <v>24.24583086694032</v>
       </c>
       <c r="G16">
-        <v>17.42214274394152</v>
+        <v>17.42214274394155</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.34238299294285</v>
+        <v>22.34238299294286</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.066113649062</v>
+        <v>25.06611364906207</v>
       </c>
       <c r="C17">
-        <v>17.0287738002723</v>
+        <v>17.02877380027234</v>
       </c>
       <c r="D17">
-        <v>3.909344323658865</v>
+        <v>3.909344323658824</v>
       </c>
       <c r="F17">
-        <v>23.85661464282207</v>
+        <v>23.85661464282209</v>
       </c>
       <c r="G17">
-        <v>17.22385600178921</v>
+        <v>17.22385600178918</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.87281104317971</v>
+        <v>21.87281104317977</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,25 +828,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.74186648253753</v>
+        <v>24.74186648253742</v>
       </c>
       <c r="C18">
-        <v>16.82022684396134</v>
+        <v>16.82022684396138</v>
       </c>
       <c r="D18">
-        <v>3.907544872604248</v>
+        <v>3.90754487260429</v>
       </c>
       <c r="F18">
-        <v>23.63594508095152</v>
+        <v>23.63594508095162</v>
       </c>
       <c r="G18">
-        <v>17.11376690602183</v>
+        <v>17.11376690602196</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.59914668388376</v>
+        <v>21.59914668388367</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,25 +854,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63133348952158</v>
+        <v>24.63133348952164</v>
       </c>
       <c r="C19">
-        <v>16.74914927623759</v>
+        <v>16.74914927623756</v>
       </c>
       <c r="D19">
-        <v>3.906967581301001</v>
+        <v>3.906967581300969</v>
       </c>
       <c r="F19">
-        <v>23.56177889267295</v>
+        <v>23.56177889267301</v>
       </c>
       <c r="G19">
-        <v>17.07716596546615</v>
+        <v>17.07716596546621</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.50586987390308</v>
+        <v>21.50586987390311</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.12577024699457</v>
+        <v>25.1257702469946</v>
       </c>
       <c r="C20">
-        <v>17.0671499229831</v>
+        <v>17.06714992298311</v>
       </c>
       <c r="D20">
-        <v>3.909692745216467</v>
+        <v>3.909692745216394</v>
       </c>
       <c r="F20">
-        <v>23.89771634765872</v>
+        <v>23.89771634765869</v>
       </c>
       <c r="G20">
-        <v>17.2445524901676</v>
+        <v>17.24455249016756</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.92316721429754</v>
+        <v>21.92316721429758</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,25 +906,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.7357201857757</v>
+        <v>26.73572018577575</v>
       </c>
       <c r="C21">
-        <v>18.10350963297388</v>
+        <v>18.10350963297386</v>
       </c>
       <c r="D21">
-        <v>3.921197209130423</v>
+        <v>3.921197209130484</v>
       </c>
       <c r="F21">
-        <v>25.06468172422603</v>
+        <v>25.06468172422611</v>
       </c>
       <c r="G21">
-        <v>17.85475149305718</v>
+        <v>17.85475149305723</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.28278318829829</v>
+        <v>23.28278318829828</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,25 +932,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75064944561058</v>
+        <v>27.7506494456107</v>
       </c>
       <c r="C22">
-        <v>18.75745620529498</v>
+        <v>18.75745620529502</v>
       </c>
       <c r="D22">
-        <v>3.930624032050247</v>
+        <v>3.930624032050145</v>
       </c>
       <c r="F22">
-        <v>25.85609464150366</v>
+        <v>25.85609464150369</v>
       </c>
       <c r="G22">
-        <v>18.29026799171046</v>
+        <v>18.29026799171044</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.14048656194844</v>
+        <v>24.14048656194856</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -958,25 +958,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21230805497148</v>
+        <v>27.21230805497149</v>
       </c>
       <c r="C23">
-        <v>18.41053468770358</v>
+        <v>18.4105346877035</v>
       </c>
       <c r="D23">
-        <v>3.925407370811267</v>
+        <v>3.925407370811262</v>
       </c>
       <c r="F23">
-        <v>25.43105259993375</v>
+        <v>25.43105259993376</v>
       </c>
       <c r="G23">
-        <v>18.05439685571582</v>
+        <v>18.05439685571585</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.68548908561757</v>
+        <v>23.68548908561753</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.09881344090836</v>
+        <v>25.09881344090841</v>
       </c>
       <c r="C24">
-        <v>17.04980879614853</v>
+        <v>17.04980879614848</v>
       </c>
       <c r="D24">
-        <v>3.909534633756226</v>
+        <v>3.909534633756175</v>
       </c>
       <c r="F24">
-        <v>23.87912462527142</v>
+        <v>23.87912462527143</v>
       </c>
       <c r="G24">
-        <v>17.23518344976986</v>
+        <v>17.23518344976987</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.90041272822676</v>
+        <v>21.90041272822682</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,25 +1010,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301794499631</v>
+        <v>22.65301794499637</v>
       </c>
       <c r="C25">
-        <v>15.47839557358158</v>
+        <v>15.47839557358143</v>
       </c>
       <c r="D25">
-        <v>3.899628612042914</v>
+        <v>3.89962861204291</v>
       </c>
       <c r="F25">
-        <v>22.3274731618544</v>
+        <v>22.32747316185444</v>
       </c>
       <c r="G25">
-        <v>16.50187320381151</v>
+        <v>16.50187320381154</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.83763995565625</v>
+        <v>19.83763995565629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,629 +406,704 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.70299561596638</v>
+        <v>20.70297107690225</v>
       </c>
       <c r="C2">
-        <v>14.22901840291185</v>
+        <v>14.22898837070563</v>
       </c>
       <c r="D2">
-        <v>3.897617432870329</v>
+        <v>3.899519734759603</v>
       </c>
       <c r="F2">
-        <v>21.28983831882207</v>
+        <v>21.27193687087788</v>
       </c>
       <c r="G2">
-        <v>16.08179518327719</v>
+        <v>14.1858670138217</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>18.19601632303389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.10333092873081</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>18.19598742388077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.28547288558331</v>
+        <v>19.28556933487252</v>
       </c>
       <c r="C3">
-        <v>13.32347238532499</v>
+        <v>13.32359509755614</v>
       </c>
       <c r="D3">
-        <v>3.899165863209383</v>
+        <v>3.900640182401007</v>
       </c>
       <c r="F3">
-        <v>20.65191154257436</v>
+        <v>20.63508819944964</v>
       </c>
       <c r="G3">
-        <v>15.86609575181028</v>
+        <v>13.68119502582636</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>17.00487417705775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.88785295238198</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>17.004990771787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.36687669592297</v>
+        <v>18.36704566033411</v>
       </c>
       <c r="C4">
-        <v>12.73816587891647</v>
+        <v>12.73838671624057</v>
       </c>
       <c r="D4">
-        <v>3.901444543247067</v>
+        <v>3.902650134420857</v>
       </c>
       <c r="F4">
-        <v>20.2922265764467</v>
+        <v>20.2760881264579</v>
       </c>
       <c r="G4">
-        <v>15.76542467296129</v>
+        <v>13.39773263023533</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>16.23420034966683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.78740846466108</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>16.23440839671389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.98028904866583</v>
+        <v>17.98048725448432</v>
       </c>
       <c r="C5">
-        <v>12.49225704665108</v>
+        <v>12.49251916685506</v>
       </c>
       <c r="D5">
-        <v>3.902692779065225</v>
+        <v>3.903787452899236</v>
       </c>
       <c r="F5">
-        <v>20.1536401958429</v>
+        <v>20.13778609172694</v>
       </c>
       <c r="G5">
-        <v>15.73201772547689</v>
+        <v>13.2888411361503</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>15.9101959396276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.75411522381223</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>15.91044197775824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91535293876554</v>
+        <v>17.91555598539225</v>
       </c>
       <c r="C6">
-        <v>12.45097722069851</v>
+        <v>12.45124628051237</v>
       </c>
       <c r="D6">
-        <v>3.90291896631681</v>
+        <v>3.903995139659996</v>
       </c>
       <c r="F6">
-        <v>20.13110793883876</v>
+        <v>20.11530134946807</v>
       </c>
       <c r="G6">
-        <v>15.72691912603462</v>
+        <v>13.27115833571208</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>15.85579277444133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.74903675242335</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>15.85604517048835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36171280892359</v>
+        <v>18.36188216876704</v>
       </c>
       <c r="C7">
-        <v>12.73487941635711</v>
+        <v>12.73510080490503</v>
       </c>
       <c r="D7">
-        <v>3.901460100843337</v>
+        <v>3.902664201743818</v>
       </c>
       <c r="F7">
-        <v>20.29032531723556</v>
+        <v>20.27419068156892</v>
       </c>
       <c r="G7">
-        <v>15.76494380687811</v>
+        <v>13.39623732606087</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>16.2298710695391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.78692904749547</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>16.23007962575654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22416767834381</v>
+        <v>20.22418530695916</v>
       </c>
       <c r="C8">
-        <v>13.92284728500884</v>
+        <v>13.92286913684745</v>
       </c>
       <c r="D8">
-        <v>3.897866634274842</v>
+        <v>3.899622657028663</v>
       </c>
       <c r="F8">
-        <v>21.06321438382088</v>
+        <v>21.04567963486479</v>
       </c>
       <c r="G8">
-        <v>16.00061537033061</v>
+        <v>14.00637562425617</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>17.79342582861473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.02220785185689</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>17.79344676755258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.49965766446386</v>
+        <v>23.49935731681961</v>
       </c>
       <c r="C9">
-        <v>16.0218837983299</v>
+        <v>16.02154032569817</v>
       </c>
       <c r="D9">
-        <v>3.90208851144291</v>
+        <v>3.904875196883991</v>
       </c>
       <c r="F9">
-        <v>22.83386344229346</v>
+        <v>22.81378061271811</v>
       </c>
       <c r="G9">
-        <v>16.72958472259082</v>
+        <v>15.41163455280278</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>20.55127360489599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.75118153589953</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>20.55093532595174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68521464578646</v>
+        <v>25.68465872348168</v>
       </c>
       <c r="C10">
-        <v>17.42712697407901</v>
+        <v>17.42651977418221</v>
       </c>
       <c r="D10">
-        <v>3.913226451053938</v>
+        <v>3.916731625634124</v>
       </c>
       <c r="F10">
-        <v>24.29067684521644</v>
+        <v>24.26885163668483</v>
       </c>
       <c r="G10">
-        <v>17.44531037874157</v>
+        <v>16.56939612374423</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>22.39548263121234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.46744422708506</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>22.39487467689116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.63359032402769</v>
+        <v>26.63291099010012</v>
       </c>
       <c r="C11">
-        <v>18.03772901951062</v>
+        <v>18.03700043649679</v>
       </c>
       <c r="D11">
-        <v>3.920343971928801</v>
+        <v>3.924165640946968</v>
       </c>
       <c r="F11">
-        <v>24.9873954811497</v>
+        <v>24.96480435133882</v>
       </c>
       <c r="G11">
-        <v>17.81309359045385</v>
+        <v>17.12294711869175</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>23.19649831391675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17.83559643044392</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>23.19576391421945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.9863096431224</v>
+        <v>26.98558232017363</v>
       </c>
       <c r="C12">
-        <v>18.26493089225296</v>
+        <v>18.26415592818315</v>
       </c>
       <c r="D12">
-        <v>3.923363715045715</v>
+        <v>3.927303548938212</v>
       </c>
       <c r="F12">
-        <v>25.25614968908242</v>
+        <v>25.23327202829472</v>
       </c>
       <c r="G12">
-        <v>17.95864830525683</v>
+        <v>17.33642587447944</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>23.49451372006599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.98130922136378</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>23.49373066858992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.91062724144242</v>
+        <v>26.90991031359448</v>
       </c>
       <c r="C13">
-        <v>18.21617594828729</v>
+        <v>18.21541099527774</v>
       </c>
       <c r="D13">
-        <v>3.92269841488198</v>
+        <v>3.926612878206274</v>
       </c>
       <c r="F13">
-        <v>25.19804884100919</v>
+        <v>25.1752327408113</v>
       </c>
       <c r="G13">
-        <v>17.92701775459086</v>
+        <v>17.29027734941803</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>23.43056459257651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.9496438057644</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>23.42979205723661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.66273612022174</v>
+        <v>26.66205286478912</v>
       </c>
       <c r="C14">
-        <v>18.05650099652728</v>
+        <v>18.05576860733067</v>
       </c>
       <c r="D14">
-        <v>3.920585721473554</v>
+        <v>3.924417146974498</v>
       </c>
       <c r="F14">
-        <v>25.00940709136805</v>
+        <v>24.98679232066841</v>
       </c>
       <c r="G14">
-        <v>17.82494135384863</v>
+        <v>17.14043265530962</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>23.22112181100016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.84745682950795</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>23.22038342550306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51006655945979</v>
+        <v>26.50940375854291</v>
       </c>
       <c r="C15">
-        <v>17.95817517539306</v>
+        <v>17.95746267170778</v>
       </c>
       <c r="D15">
-        <v>3.919334837940819</v>
+        <v>3.923115174680406</v>
       </c>
       <c r="F15">
-        <v>24.89450113795348</v>
+        <v>24.87201013149827</v>
       </c>
       <c r="G15">
-        <v>17.7632410235938</v>
+        <v>17.04915177469182</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>23.09214477040693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17.78569116668019</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>23.09142719529649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.62232880595619</v>
+        <v>25.62178078624541</v>
       </c>
       <c r="C16">
-        <v>17.38665441561999</v>
+        <v>17.3860551021452</v>
       </c>
       <c r="D16">
-        <v>3.912805015362415</v>
+        <v>3.916289281848388</v>
       </c>
       <c r="F16">
-        <v>24.24583086694032</v>
+        <v>24.22405622560689</v>
       </c>
       <c r="G16">
-        <v>17.42214274394155</v>
+        <v>16.53375998215528</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>22.34238299294286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>17.44425502734403</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>22.341783207318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.06611364906207</v>
+        <v>25.06563405997055</v>
       </c>
       <c r="C17">
-        <v>17.02877380027234</v>
+        <v>17.02824341697086</v>
       </c>
       <c r="D17">
-        <v>3.909344323658824</v>
+        <v>3.912644178469803</v>
       </c>
       <c r="F17">
-        <v>23.85661464282209</v>
+        <v>23.83528612004013</v>
       </c>
       <c r="G17">
-        <v>17.22385600178918</v>
+        <v>16.22445454711268</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>21.87281104317977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>17.24579331957387</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>21.87228239694817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.74186648253742</v>
+        <v>24.7414255952187</v>
       </c>
       <c r="C18">
-        <v>16.82022684396138</v>
+        <v>16.81973598802263</v>
       </c>
       <c r="D18">
-        <v>3.90754487260429</v>
+        <v>3.910737697824598</v>
       </c>
       <c r="F18">
-        <v>23.63594508095162</v>
+        <v>23.61487569648774</v>
       </c>
       <c r="G18">
-        <v>17.11376690602196</v>
+        <v>16.04907877289235</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>21.59914668388367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>17.1356153138554</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>21.59865861514646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63133348952164</v>
+        <v>24.63090559945422</v>
       </c>
       <c r="C19">
-        <v>16.74914927623756</v>
+        <v>16.74867178930242</v>
       </c>
       <c r="D19">
-        <v>3.906967581300969</v>
+        <v>3.910124008657153</v>
       </c>
       <c r="F19">
-        <v>23.56177889267301</v>
+        <v>23.54079769221379</v>
       </c>
       <c r="G19">
-        <v>17.07716596546621</v>
+        <v>15.99013451988289</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>21.50586987390311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>17.09898626765442</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>21.50539549220368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.1257702469946</v>
+        <v>25.12528344297127</v>
       </c>
       <c r="C20">
-        <v>17.06714992298311</v>
+        <v>17.06661221580034</v>
       </c>
       <c r="D20">
-        <v>3.909692745216394</v>
+        <v>3.913012331748152</v>
       </c>
       <c r="F20">
-        <v>23.89771634765869</v>
+        <v>23.8763400735322</v>
       </c>
       <c r="G20">
-        <v>17.24455249016756</v>
+        <v>16.25711908983494</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>21.92316721429758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>17.2665072160947</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>21.92263103192506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73572018577575</v>
+        <v>26.73502707598618</v>
       </c>
       <c r="C21">
-        <v>18.10350963297386</v>
+        <v>18.10276769206394</v>
       </c>
       <c r="D21">
-        <v>3.921197209130484</v>
+        <v>3.925053072277804</v>
       </c>
       <c r="F21">
-        <v>25.06468172422611</v>
+        <v>25.04200772643534</v>
       </c>
       <c r="G21">
-        <v>17.85475149305723</v>
+        <v>17.18434073589761</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>23.28278318829828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>17.8772989472031</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>23.28203479498179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.7506494456107</v>
+        <v>27.74981405459949</v>
       </c>
       <c r="C22">
-        <v>18.75745620529502</v>
+        <v>18.7565782493969</v>
       </c>
       <c r="D22">
-        <v>3.930624032050145</v>
+        <v>3.934820451613278</v>
       </c>
       <c r="F22">
-        <v>25.85609464150369</v>
+        <v>25.83259267967326</v>
       </c>
       <c r="G22">
-        <v>18.29026799171044</v>
+        <v>17.82948074937651</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>24.14048656194856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>18.31330981911432</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>24.13959486679273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21230805497149</v>
+        <v>27.21154936726526</v>
       </c>
       <c r="C23">
-        <v>18.4105346877035</v>
+        <v>18.40972963268883</v>
       </c>
       <c r="D23">
-        <v>3.925407370811262</v>
+        <v>3.929423009988667</v>
       </c>
       <c r="F23">
-        <v>25.43105259993376</v>
+        <v>25.40799084320159</v>
       </c>
       <c r="G23">
-        <v>18.05439685571585</v>
+        <v>17.47533956424806</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>23.68548908561753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>18.07716495221023</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>23.68467437669685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.09881344090841</v>
+        <v>25.098329900732</v>
       </c>
       <c r="C24">
-        <v>17.04980879614848</v>
+        <v>17.04927440039293</v>
       </c>
       <c r="D24">
-        <v>3.909534633756175</v>
+        <v>3.912845302704906</v>
       </c>
       <c r="F24">
-        <v>23.87912462527143</v>
+        <v>23.85776993122289</v>
       </c>
       <c r="G24">
-        <v>17.23518344976987</v>
+        <v>16.24234382406776</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>21.90041272822682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>17.25713026912961</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>21.89987995392806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65301794499637</v>
+        <v>22.65280673736972</v>
       </c>
       <c r="C25">
-        <v>15.47839557358143</v>
+        <v>15.47814931031225</v>
       </c>
       <c r="D25">
-        <v>3.89962861204291</v>
+        <v>3.902142688390141</v>
       </c>
       <c r="F25">
-        <v>22.32747316185444</v>
+        <v>22.30805694002045</v>
       </c>
       <c r="G25">
-        <v>16.50187320381154</v>
+        <v>15.00929875499798</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>19.83763995565629</v>
+        <v>16.52337878849334</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>19.83739905373909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,701 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.70297107690225</v>
+        <v>21.11688212058272</v>
       </c>
       <c r="C2">
-        <v>14.22898837070563</v>
+        <v>14.52753843555634</v>
       </c>
       <c r="D2">
-        <v>3.899519734759603</v>
+        <v>4.618035127923592</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>21.27193687087788</v>
+        <v>64.70312102275483</v>
       </c>
       <c r="G2">
-        <v>14.1858670138217</v>
+        <v>2.09603188742511</v>
       </c>
       <c r="H2">
-        <v>16.10333092873081</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>6.829781648202829</v>
+      </c>
       <c r="K2">
-        <v>18.19598742388077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13.7807413917524</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.28556933487252</v>
+        <v>19.54709394575772</v>
       </c>
       <c r="C3">
-        <v>13.32359509755614</v>
+        <v>13.41897490636077</v>
       </c>
       <c r="D3">
-        <v>3.900640182401007</v>
+        <v>4.308371560841365</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>20.63508819944964</v>
+        <v>61.26188536861716</v>
       </c>
       <c r="G3">
-        <v>13.68119502582636</v>
+        <v>2.111051462239117</v>
       </c>
       <c r="H3">
-        <v>15.88785295238198</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>6.77521789268871</v>
+      </c>
       <c r="K3">
-        <v>17.004990771787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13.18325534505568</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.36704566033411</v>
+        <v>18.54460446278147</v>
       </c>
       <c r="C4">
-        <v>12.73838671624057</v>
+        <v>12.71146544631868</v>
       </c>
       <c r="D4">
-        <v>3.902650134420857</v>
+        <v>4.11198139336465</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.2760881264579</v>
+        <v>59.1137242497737</v>
       </c>
       <c r="G4">
-        <v>13.39773263023533</v>
+        <v>2.120400754784233</v>
       </c>
       <c r="H4">
-        <v>15.78740846466108</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>6.744809055802752</v>
+      </c>
       <c r="K4">
-        <v>16.23440839671389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>12.82246019360172</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.98048725448432</v>
+        <v>18.1261409437766</v>
       </c>
       <c r="C5">
-        <v>12.49251916685506</v>
+        <v>12.41616917440215</v>
       </c>
       <c r="D5">
-        <v>3.903787452899236</v>
+        <v>4.030329504188151</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>20.13778609172694</v>
+        <v>58.22969791964469</v>
       </c>
       <c r="G5">
-        <v>13.2888411361503</v>
+        <v>2.124248625855067</v>
       </c>
       <c r="H5">
-        <v>15.75411522381223</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>6.733155289578861</v>
+      </c>
       <c r="K5">
-        <v>15.91044197775824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12.67705700681839</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.91555598539225</v>
+        <v>18.05604955386544</v>
       </c>
       <c r="C6">
-        <v>12.45124628051237</v>
+        <v>12.36670788141713</v>
       </c>
       <c r="D6">
-        <v>3.903995139659996</v>
+        <v>4.016672193646125</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>20.11530134946807</v>
+        <v>58.08239537743349</v>
       </c>
       <c r="G6">
-        <v>13.27115833571208</v>
+        <v>2.124890017057441</v>
       </c>
       <c r="H6">
-        <v>15.74903675242335</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>6.73126366229518</v>
+      </c>
       <c r="K6">
-        <v>15.85604517048835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>12.65301451903446</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.36188216876704</v>
+        <v>18.53900142263875</v>
       </c>
       <c r="C7">
-        <v>12.73510080490503</v>
+        <v>12.7075115165266</v>
       </c>
       <c r="D7">
-        <v>3.902664201743818</v>
+        <v>4.11088682613666</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>20.27419068156892</v>
+        <v>59.10183646075927</v>
       </c>
       <c r="G7">
-        <v>13.39623732606087</v>
+        <v>2.120452487396009</v>
       </c>
       <c r="H7">
-        <v>15.78692904749547</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>6.744648950953587</v>
+      </c>
       <c r="K7">
-        <v>16.23007962575654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>12.82049250545607</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.22418530695916</v>
+        <v>20.58348195754416</v>
       </c>
       <c r="C8">
-        <v>13.92286913684745</v>
+        <v>14.15072722907918</v>
       </c>
       <c r="D8">
-        <v>3.899622657028663</v>
+        <v>4.512528086449676</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>21.04567963486479</v>
+        <v>63.52396007685167</v>
       </c>
       <c r="G8">
-        <v>14.00637562425617</v>
+        <v>2.101188039154107</v>
       </c>
       <c r="H8">
-        <v>16.02220785185689</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>6.81030100074002</v>
+      </c>
       <c r="K8">
-        <v>17.79344676755258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>13.57351763071101</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.49935731681961</v>
+        <v>24.29977848980075</v>
       </c>
       <c r="C9">
-        <v>16.02154032569817</v>
+        <v>16.78045335593855</v>
       </c>
       <c r="D9">
-        <v>3.904875196883991</v>
+        <v>5.253459693970322</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22.81378061271811</v>
+        <v>71.91887309939598</v>
       </c>
       <c r="G9">
-        <v>15.41163455280278</v>
+        <v>2.064110400583022</v>
       </c>
       <c r="H9">
-        <v>16.75118153589953</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>6.965588567187569</v>
+      </c>
       <c r="K9">
-        <v>20.55093532595174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>15.65663328671664</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68465872348168</v>
+        <v>26.87597277543865</v>
       </c>
       <c r="C10">
-        <v>17.42651977418221</v>
+        <v>18.61178170547351</v>
       </c>
       <c r="D10">
-        <v>3.916731625634124</v>
+        <v>5.774728237623275</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>24.26885163668483</v>
+        <v>77.94160815477109</v>
       </c>
       <c r="G10">
-        <v>16.56939612374423</v>
+        <v>2.03678781247107</v>
       </c>
       <c r="H10">
-        <v>17.46744422708506</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>7.099051864974873</v>
+      </c>
       <c r="K10">
-        <v>22.39487467689116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>17.31239316855279</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.63291099010012</v>
+        <v>28.02167674328061</v>
       </c>
       <c r="C11">
-        <v>18.03700043649679</v>
+        <v>19.42914391736987</v>
       </c>
       <c r="D11">
-        <v>3.924165640946968</v>
+        <v>6.008460147663103</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>24.96480435133882</v>
+        <v>80.66146327870356</v>
       </c>
       <c r="G11">
-        <v>17.12294711869175</v>
+        <v>2.024198946964515</v>
       </c>
       <c r="H11">
-        <v>17.83559643044392</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>7.164837991146812</v>
+      </c>
       <c r="K11">
-        <v>23.19576391421945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>18.04750614538163</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.98558232017363</v>
+        <v>28.45251702196393</v>
       </c>
       <c r="C12">
-        <v>18.26415592818315</v>
+        <v>19.73703761304055</v>
       </c>
       <c r="D12">
-        <v>3.927303548938212</v>
+        <v>6.096651788497901</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>25.23327202829472</v>
+        <v>81.68997835947988</v>
       </c>
       <c r="G12">
-        <v>17.33642587447944</v>
+        <v>2.019394244396114</v>
       </c>
       <c r="H12">
-        <v>17.98130922136378</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>7.190567148093058</v>
+      </c>
       <c r="K12">
-        <v>23.49373066858992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>18.32378408091527</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90991031359448</v>
+        <v>28.35984805077368</v>
       </c>
       <c r="C13">
-        <v>18.21541099527774</v>
+        <v>19.67078783668648</v>
       </c>
       <c r="D13">
-        <v>3.926612878206274</v>
+        <v>6.077669140099068</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>25.1752327408113</v>
+        <v>81.46850541355926</v>
       </c>
       <c r="G13">
-        <v>17.29027734941803</v>
+        <v>2.020430958772359</v>
       </c>
       <c r="H13">
-        <v>17.9496438057644</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>7.184987976132867</v>
+      </c>
       <c r="K13">
-        <v>23.42979205723661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>18.26436660235591</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.66205286478912</v>
+        <v>28.0571777002474</v>
       </c>
       <c r="C14">
-        <v>18.05576860733067</v>
+        <v>19.45450293723731</v>
       </c>
       <c r="D14">
-        <v>3.924417146974498</v>
+        <v>6.015720979570554</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>24.98679232066841</v>
+        <v>80.74609879056597</v>
       </c>
       <c r="G14">
-        <v>17.14043265530962</v>
+        <v>2.023804508450036</v>
       </c>
       <c r="H14">
-        <v>17.84745682950795</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>7.166937798453671</v>
+      </c>
       <c r="K14">
-        <v>23.22038342550306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>18.0702743797949</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.50940375854291</v>
+        <v>27.87141621570904</v>
       </c>
       <c r="C15">
-        <v>17.95746267170778</v>
+        <v>19.32183188424365</v>
       </c>
       <c r="D15">
-        <v>3.923115174680406</v>
+        <v>5.977740289246495</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>24.87201013149827</v>
+        <v>80.30346709385867</v>
       </c>
       <c r="G15">
-        <v>17.04915177469182</v>
+        <v>2.025865528315538</v>
       </c>
       <c r="H15">
-        <v>17.78569116668019</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>7.155990887719761</v>
+      </c>
       <c r="K15">
-        <v>23.09142719529649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.95113146643455</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.62178078624541</v>
+        <v>26.80063192667648</v>
       </c>
       <c r="C16">
-        <v>17.3860551021452</v>
+        <v>18.55810040095007</v>
       </c>
       <c r="D16">
-        <v>3.916289281848388</v>
+        <v>5.75939875185959</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>24.22405622560689</v>
+        <v>77.76357060768979</v>
       </c>
       <c r="G16">
-        <v>16.53375998215528</v>
+        <v>2.037606126745289</v>
       </c>
       <c r="H16">
-        <v>17.44425502734403</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>7.094861810055678</v>
+      </c>
       <c r="K16">
-        <v>22.341783207318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>17.26402896375387</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.06563405997055</v>
+        <v>26.13751610057814</v>
       </c>
       <c r="C17">
-        <v>17.02824341697086</v>
+        <v>18.08596406391931</v>
       </c>
       <c r="D17">
-        <v>3.912644178469803</v>
+        <v>5.624693967202392</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>23.83528612004013</v>
+        <v>76.20120627291206</v>
       </c>
       <c r="G17">
-        <v>16.22445454711268</v>
+        <v>2.044758177414582</v>
       </c>
       <c r="H17">
-        <v>17.24579331957387</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
+      <c r="J17">
+        <v>7.058717957755635</v>
+      </c>
       <c r="K17">
-        <v>21.87228239694817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>16.83821121467099</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.7414255952187</v>
+        <v>25.75358784796957</v>
       </c>
       <c r="C18">
-        <v>16.81973598802263</v>
+        <v>17.81287943464947</v>
       </c>
       <c r="D18">
-        <v>3.910737697824598</v>
+        <v>5.546883562668334</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>23.61487569648774</v>
+        <v>75.30059109335896</v>
       </c>
       <c r="G18">
-        <v>16.04907877289235</v>
+        <v>2.048857840963186</v>
       </c>
       <c r="H18">
-        <v>17.1356153138554</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18">
+        <v>7.038400355282678</v>
+      </c>
       <c r="K18">
-        <v>21.59865861514646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>16.5915529162227</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63090559945422</v>
+        <v>25.62314266349697</v>
       </c>
       <c r="C19">
-        <v>16.74867178930242</v>
+        <v>17.72013850298089</v>
       </c>
       <c r="D19">
-        <v>3.910124008657153</v>
+        <v>5.520476687617226</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>23.54079769221379</v>
+        <v>74.99528092277764</v>
       </c>
       <c r="G19">
-        <v>15.99013451988289</v>
+        <v>2.050243910873305</v>
       </c>
       <c r="H19">
-        <v>17.09898626765442</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
+      <c r="J19">
+        <v>7.031599707429949</v>
+      </c>
       <c r="K19">
-        <v>21.50539549220368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>16.50772594115869</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.12528344297127</v>
+        <v>26.20836189334329</v>
       </c>
       <c r="C20">
-        <v>17.06661221580034</v>
+        <v>18.13637733487713</v>
       </c>
       <c r="D20">
-        <v>3.913012331748152</v>
+        <v>5.639066736847086</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>23.8763400735322</v>
+        <v>76.36771905964679</v>
       </c>
       <c r="G20">
-        <v>16.25711908983494</v>
+        <v>2.04399837587162</v>
       </c>
       <c r="H20">
-        <v>17.2665072160947</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20">
+        <v>7.06251616135093</v>
+      </c>
       <c r="K20">
-        <v>21.92263103192506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>16.88371685323758</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73502707598618</v>
+        <v>28.1461542477996</v>
       </c>
       <c r="C21">
-        <v>18.10276769206394</v>
+        <v>19.51806938635535</v>
       </c>
       <c r="D21">
-        <v>3.925053072277804</v>
+        <v>6.033923727070961</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25.04200772643534</v>
+        <v>80.95831242889568</v>
       </c>
       <c r="G21">
-        <v>17.18434073589761</v>
+        <v>2.022814766006666</v>
       </c>
       <c r="H21">
-        <v>17.8772989472031</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>7.172216604245587</v>
+      </c>
       <c r="K21">
-        <v>23.28203479498179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>18.1273362304034</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.74981405459949</v>
+        <v>29.39552811124769</v>
       </c>
       <c r="C22">
-        <v>18.7565782493969</v>
+        <v>20.41201936356855</v>
       </c>
       <c r="D22">
-        <v>3.934820451613278</v>
+        <v>6.290242738923743</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>25.83259267967326</v>
+        <v>83.95117399202604</v>
       </c>
       <c r="G22">
-        <v>17.82948074937651</v>
+        <v>2.008741975088121</v>
       </c>
       <c r="H22">
-        <v>18.31330981911432</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>7.248730591477896</v>
+      </c>
       <c r="K22">
-        <v>24.13959486679273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>18.92822490670496</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21154936726526</v>
+        <v>28.72998249691428</v>
       </c>
       <c r="C23">
-        <v>18.40972963268883</v>
+        <v>19.93548417504131</v>
       </c>
       <c r="D23">
-        <v>3.929423009988667</v>
+        <v>6.15353324852888</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>25.40799084320159</v>
+        <v>82.35390537231339</v>
       </c>
       <c r="G23">
-        <v>17.47533956424806</v>
+        <v>2.016279398716757</v>
       </c>
       <c r="H23">
-        <v>18.07716495221023</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
+      <c r="J23">
+        <v>7.207419001574368</v>
+      </c>
       <c r="K23">
-        <v>23.68467437669685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>18.50166772543046</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.098329900732</v>
+        <v>26.17634095709473</v>
       </c>
       <c r="C24">
-        <v>17.04927440039293</v>
+        <v>18.11359067191235</v>
       </c>
       <c r="D24">
-        <v>3.912845302704906</v>
+        <v>5.632569962677464</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>23.85776993122289</v>
+        <v>76.29244617843818</v>
       </c>
       <c r="G24">
-        <v>16.24234382406776</v>
+        <v>2.044341918916738</v>
       </c>
       <c r="H24">
-        <v>17.25713026912961</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>7.060797560948001</v>
+      </c>
       <c r="K24">
-        <v>21.89987995392806</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>16.86314955352799</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65280673736972</v>
+        <v>23.3235737134616</v>
       </c>
       <c r="C25">
-        <v>15.47814931031225</v>
+        <v>16.08851849589714</v>
       </c>
       <c r="D25">
-        <v>3.902142688390141</v>
+        <v>5.057534225187118</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>22.30805694002045</v>
+        <v>69.67605601468399</v>
       </c>
       <c r="G25">
-        <v>15.00929875499798</v>
+        <v>2.074113563588485</v>
       </c>
       <c r="H25">
-        <v>16.52337878849334</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
+      <c r="J25">
+        <v>6.920434260619185</v>
+      </c>
       <c r="K25">
-        <v>19.83739905373909</v>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>15.02792330323202</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11688212058272</v>
+        <v>15.77065176887737</v>
       </c>
       <c r="C2">
-        <v>14.52753843555634</v>
+        <v>6.365182034583476</v>
       </c>
       <c r="D2">
-        <v>4.618035127923592</v>
+        <v>4.656478549818948</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.70312102275483</v>
+        <v>29.89635927874142</v>
       </c>
       <c r="G2">
-        <v>2.09603188742511</v>
+        <v>38.13771807668105</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.74300593620174</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.829781648202829</v>
+        <v>6.2904665536146</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.67696979808241</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.187372486428663</v>
       </c>
       <c r="M2">
-        <v>13.7807413917524</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.68885404772019</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54709394575772</v>
+        <v>14.91279386544447</v>
       </c>
       <c r="C3">
-        <v>13.41897490636077</v>
+        <v>6.203081163841471</v>
       </c>
       <c r="D3">
-        <v>4.308371560841365</v>
+        <v>4.512886207195773</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>61.26188536861716</v>
+        <v>29.53783946656461</v>
       </c>
       <c r="G3">
-        <v>2.111051462239117</v>
+        <v>37.56134982876925</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.74234879249915</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.77521789268871</v>
+        <v>6.326276288796151</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.04602969719627</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.051110969396783</v>
       </c>
       <c r="M3">
-        <v>13.18325534505568</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.90243241415918</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54460446278147</v>
+        <v>14.368146848781</v>
       </c>
       <c r="C4">
-        <v>12.71146544631868</v>
+        <v>6.101223873140329</v>
       </c>
       <c r="D4">
-        <v>4.11198139336465</v>
+        <v>4.424030142192039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>59.1137242497737</v>
+        <v>29.33709832578166</v>
       </c>
       <c r="G4">
-        <v>2.120400754784233</v>
+        <v>37.23518277767198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.74934164229011</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.744809055802752</v>
+        <v>6.350041856346945</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.64541258936442</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.969350400111204</v>
       </c>
       <c r="M4">
-        <v>12.82246019360172</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.03690543489943</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1261409437766</v>
+        <v>14.14193754089011</v>
       </c>
       <c r="C5">
-        <v>12.41616917440215</v>
+        <v>6.059151662519477</v>
       </c>
       <c r="D5">
-        <v>4.030329504188151</v>
+        <v>4.387698891302334</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.22969791964469</v>
+        <v>29.26010122029247</v>
       </c>
       <c r="G5">
-        <v>2.124248625855067</v>
+        <v>37.10915578735015</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.75399033886606</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.733155289578861</v>
+        <v>6.360168557972319</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.47901393173271</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.936541711582516</v>
       </c>
       <c r="M5">
-        <v>12.67705700681839</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.09255903478736</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05604955386544</v>
+        <v>14.10412641152747</v>
       </c>
       <c r="C6">
-        <v>12.36670788141713</v>
+        <v>6.052132154389598</v>
       </c>
       <c r="D6">
-        <v>4.016672193646125</v>
+        <v>4.381660346106182</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58.08239537743349</v>
+        <v>29.24760396335564</v>
       </c>
       <c r="G6">
-        <v>2.124890017057441</v>
+        <v>37.0886423521908</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.75486914545921</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.73126366229518</v>
+        <v>6.361876644004036</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.45119963730705</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.931125501640049</v>
       </c>
       <c r="M6">
-        <v>12.65301451903446</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.10185236524454</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53900142263875</v>
+        <v>14.36511300504961</v>
       </c>
       <c r="C7">
-        <v>12.7075115165266</v>
+        <v>6.100658729498669</v>
       </c>
       <c r="D7">
-        <v>4.11088682613666</v>
+        <v>4.423540587952035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>59.10183646075927</v>
+        <v>29.3360405543336</v>
       </c>
       <c r="G7">
-        <v>2.120452487396009</v>
+        <v>37.23345536540001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.74939713174389</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.744648950953587</v>
+        <v>6.35017664528543</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.64318094465792</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.968905828155483</v>
       </c>
       <c r="M7">
-        <v>12.82049250545607</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.03765251674067</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58348195754416</v>
+        <v>15.47871329340553</v>
       </c>
       <c r="C8">
-        <v>14.15072722907918</v>
+        <v>6.309784087617122</v>
       </c>
       <c r="D8">
-        <v>4.512528086449676</v>
+        <v>4.607141013619411</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>63.52396007685167</v>
+        <v>29.76867829204026</v>
       </c>
       <c r="G8">
-        <v>2.101188039154107</v>
+        <v>37.93318767799953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.74120742853216</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.81030100074002</v>
+        <v>6.302441494924556</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.46226183969936</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.140012606830243</v>
       </c>
       <c r="M8">
-        <v>13.57351763071101</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.76181348047469</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29977848980075</v>
+        <v>17.51191484724675</v>
       </c>
       <c r="C9">
-        <v>16.78045335593855</v>
+        <v>6.700657022165342</v>
       </c>
       <c r="D9">
-        <v>5.253459693970322</v>
+        <v>4.959628254154977</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.91887309939598</v>
+        <v>30.77357821791655</v>
       </c>
       <c r="G9">
-        <v>2.064110400583022</v>
+        <v>39.52821881386793</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.78659668202026</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.965588567187569</v>
+        <v>6.223190036088438</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.13067424791799</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.489328669640558</v>
       </c>
       <c r="M9">
-        <v>15.65663328671664</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.2466110923521</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.87597277543865</v>
+        <v>18.9055708173324</v>
       </c>
       <c r="C10">
-        <v>18.61178170547351</v>
+        <v>6.975313161151396</v>
       </c>
       <c r="D10">
-        <v>5.774728237623275</v>
+        <v>5.211510853859493</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.94160815477109</v>
+        <v>31.61035955678184</v>
       </c>
       <c r="G10">
-        <v>2.03678781247107</v>
+        <v>40.83898143971847</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.8612558186563</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.099051864974873</v>
+        <v>6.174087188400303</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.338163202877</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.752637922423411</v>
       </c>
       <c r="M10">
-        <v>17.31239316855279</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.88272004256309</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.02167674328061</v>
+        <v>19.51677437745551</v>
       </c>
       <c r="C11">
-        <v>19.42914391736987</v>
+        <v>7.097435883999405</v>
       </c>
       <c r="D11">
-        <v>6.008460147663103</v>
+        <v>5.324122036790495</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.66146327870356</v>
+        <v>32.01295165273915</v>
       </c>
       <c r="G11">
-        <v>2.024198946964515</v>
+        <v>41.46589860629252</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.9050364711204</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.164837991146812</v>
+        <v>6.153820488679596</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.86030236108348</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.873532384359821</v>
       </c>
       <c r="M11">
-        <v>18.04750614538163</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.72012641249419</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.45251702196393</v>
+        <v>19.74489430877781</v>
       </c>
       <c r="C12">
-        <v>19.73703761304055</v>
+        <v>7.143270033273498</v>
       </c>
       <c r="D12">
-        <v>6.096651788497901</v>
+        <v>5.366450927083088</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.68997835947988</v>
+        <v>32.16859449077055</v>
       </c>
       <c r="G12">
-        <v>2.019394244396114</v>
+        <v>41.70773164277945</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.92309768771918</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.190567148093058</v>
+        <v>6.146452082678087</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.0541850916065</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.919446354973449</v>
       </c>
       <c r="M12">
-        <v>18.32378408091527</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.65896173967157</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.35984805077368</v>
+        <v>19.69591328623265</v>
       </c>
       <c r="C13">
-        <v>19.67078783668648</v>
+        <v>7.133417165944536</v>
       </c>
       <c r="D13">
-        <v>6.077669140099068</v>
+        <v>5.357349078696637</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.46850541355926</v>
+        <v>32.13493157876575</v>
       </c>
       <c r="G13">
-        <v>2.020430958772359</v>
+        <v>41.65545096033524</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.91914081080583</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.184987976132867</v>
+        <v>6.148025242858042</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.01259870021145</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.909552396558654</v>
       </c>
       <c r="M13">
-        <v>18.26436660235591</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.67211685745444</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.0571777002474</v>
+        <v>19.53560889431423</v>
       </c>
       <c r="C14">
-        <v>19.45450293723731</v>
+        <v>7.101214945999308</v>
       </c>
       <c r="D14">
-        <v>6.015720979570554</v>
+        <v>5.327610925562592</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.74609879056597</v>
+        <v>32.02569234742709</v>
       </c>
       <c r="G14">
-        <v>2.023804508450036</v>
+        <v>41.48570535009786</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.90649225872665</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.166937798453671</v>
+        <v>6.153208098963991</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.87632978865737</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.877307212725201</v>
       </c>
       <c r="M14">
-        <v>18.0702743797949</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.71508631772847</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.87141621570904</v>
+        <v>19.43698302825718</v>
       </c>
       <c r="C15">
-        <v>19.32183188424365</v>
+        <v>7.081436512045101</v>
       </c>
       <c r="D15">
-        <v>5.977740289246495</v>
+        <v>5.309353642733407</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.30346709385867</v>
+        <v>31.95919664418284</v>
       </c>
       <c r="G15">
-        <v>2.025865528315538</v>
+        <v>41.38230940426086</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.89893983123631</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.155990887719761</v>
+        <v>6.156422880156541</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.79236303106336</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.85757280397769</v>
       </c>
       <c r="M15">
-        <v>17.95113146643455</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.74145872558523</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.80063192667648</v>
+        <v>18.8651636775636</v>
       </c>
       <c r="C16">
-        <v>18.55810040095007</v>
+        <v>6.967274860437264</v>
       </c>
       <c r="D16">
-        <v>5.75939875185959</v>
+        <v>5.204109024079863</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.76357060768979</v>
+        <v>31.58449367674972</v>
       </c>
       <c r="G16">
-        <v>2.037606126745289</v>
+        <v>40.79862980704019</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.85859821900388</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.094861810055678</v>
+        <v>6.175454032113188</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.30349923389912</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.744757289923316</v>
       </c>
       <c r="M16">
-        <v>17.26402896375387</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.89340365670356</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.13751610057814</v>
+        <v>18.50849051556528</v>
       </c>
       <c r="C17">
-        <v>18.08596406391931</v>
+        <v>6.89651316761951</v>
       </c>
       <c r="D17">
-        <v>5.624693967202392</v>
+        <v>5.13901643825456</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.20120627291206</v>
+        <v>31.36026944155078</v>
       </c>
       <c r="G17">
-        <v>2.044758177414582</v>
+        <v>40.44842867764827</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.83641438776591</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.058717957755635</v>
+        <v>6.187665097189424</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.99668744589248</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.675814374089578</v>
       </c>
       <c r="M17">
-        <v>16.83821121467099</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.98735828334788</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75358784796957</v>
+        <v>18.30119915379303</v>
       </c>
       <c r="C18">
-        <v>17.81287943464947</v>
+        <v>6.855547639940131</v>
       </c>
       <c r="D18">
-        <v>5.546883562668334</v>
+        <v>5.101392912364547</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.30059109335896</v>
+        <v>31.23336432740488</v>
       </c>
       <c r="G18">
-        <v>2.048857840963186</v>
+        <v>40.24988520025502</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.82457463811165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.038400355282678</v>
+        <v>6.194882913441477</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.8176575479188</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.636266491211403</v>
       </c>
       <c r="M18">
-        <v>16.5915529162227</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.04167644638751</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62314266349697</v>
+        <v>18.23064796784116</v>
       </c>
       <c r="C19">
-        <v>17.72013850298089</v>
+        <v>6.841632079119828</v>
       </c>
       <c r="D19">
-        <v>5.520476687617226</v>
+        <v>5.088623649906238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.99528092277764</v>
+        <v>31.19074961904154</v>
       </c>
       <c r="G19">
-        <v>2.050243910873305</v>
+        <v>40.18315615077314</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.82072174794051</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.031599707429949</v>
+        <v>6.197359873451568</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.75659952142203</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.622895350733812</v>
       </c>
       <c r="M19">
-        <v>16.50772594115869</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.06011590593748</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.20836189334329</v>
+        <v>18.54668118393952</v>
       </c>
       <c r="C20">
-        <v>18.13637733487713</v>
+        <v>6.904073376374918</v>
       </c>
       <c r="D20">
-        <v>5.639066736847086</v>
+        <v>5.145964936396455</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.36771905964679</v>
+        <v>31.38392475023236</v>
       </c>
       <c r="G20">
-        <v>2.04399837587162</v>
+        <v>40.48540962485631</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.83868019077532</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.06251616135093</v>
+        <v>6.186345036709144</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.02961256327947</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.68314266654736</v>
       </c>
       <c r="M20">
-        <v>16.88371685323758</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.97732801124129</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.1461542477996</v>
+        <v>19.58278485395401</v>
       </c>
       <c r="C21">
-        <v>19.51806938635535</v>
+        <v>7.110684703388473</v>
       </c>
       <c r="D21">
-        <v>6.033923727070961</v>
+        <v>5.336354503389565</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.95831242889568</v>
+        <v>32.05769169963575</v>
       </c>
       <c r="G21">
-        <v>2.022814766006666</v>
+        <v>41.53544321523495</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.91016664266121</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.172216604245587</v>
+        <v>6.151677388959989</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.91645895793564</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.88677496825431</v>
       </c>
       <c r="M21">
-        <v>18.1273362304034</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.70245426123009</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.39552811124769</v>
+        <v>20.2405228270287</v>
       </c>
       <c r="C22">
-        <v>20.41201936356855</v>
+        <v>7.243320845151059</v>
       </c>
       <c r="D22">
-        <v>6.290242738923743</v>
+        <v>5.458940531414188</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.95117399202604</v>
+        <v>32.51664797774879</v>
       </c>
       <c r="G22">
-        <v>2.008741975088121</v>
+        <v>42.24755540404833</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.96556170197049</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.248730591477896</v>
+        <v>6.130808992936417</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.47371399426679</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.020630472553519</v>
       </c>
       <c r="M22">
-        <v>18.92822490670496</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.52516725107839</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.72998249691428</v>
+        <v>19.89126387366979</v>
       </c>
       <c r="C23">
-        <v>19.93548417504131</v>
+        <v>7.172750694718152</v>
       </c>
       <c r="D23">
-        <v>6.15353324852888</v>
+        <v>5.393691951634304</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.35390537231339</v>
+        <v>32.26997959604729</v>
       </c>
       <c r="G23">
-        <v>2.016279398716757</v>
+        <v>41.86511246936775</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.93517889968345</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.207419001574368</v>
+        <v>6.141780194256138</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.17831935989554</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.949126792276827</v>
       </c>
       <c r="M23">
-        <v>18.50166772543046</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.61957837326094</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.17634095709473</v>
+        <v>18.52942214056131</v>
       </c>
       <c r="C24">
-        <v>18.11359067191235</v>
+        <v>6.900656289154483</v>
       </c>
       <c r="D24">
-        <v>5.632569962677464</v>
+        <v>5.142824143837909</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.29244617843818</v>
+        <v>31.37322394462962</v>
       </c>
       <c r="G24">
-        <v>2.044341918916738</v>
+        <v>40.46868184466307</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.83765297956568</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.060797560948001</v>
+        <v>6.186941221474764</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.0147353446794</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.67982926840744</v>
       </c>
       <c r="M24">
-        <v>16.86314955352799</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.98186175406429</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.3235737134616</v>
+        <v>16.97900133649157</v>
       </c>
       <c r="C25">
-        <v>16.08851849589714</v>
+        <v>6.597066951317335</v>
       </c>
       <c r="D25">
-        <v>5.057534225187118</v>
+        <v>4.865352872052561</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.67605601468399</v>
+        <v>30.48462509613839</v>
       </c>
       <c r="G25">
-        <v>2.074113563588485</v>
+        <v>39.07250163607343</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.7673449249705</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.920434260619185</v>
+        <v>6.243056194401697</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.6615139068374</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.393537251894501</v>
       </c>
       <c r="M25">
-        <v>15.02792330323202</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.38334186170609</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.77065176887737</v>
+        <v>17.55503691331002</v>
       </c>
       <c r="C2">
-        <v>6.365182034583476</v>
+        <v>6.964138495425454</v>
       </c>
       <c r="D2">
-        <v>4.656478549818948</v>
+        <v>7.408760566910734</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.89635927874142</v>
+        <v>42.76063026919137</v>
       </c>
       <c r="G2">
-        <v>38.13771807668105</v>
+        <v>51.02241540517826</v>
       </c>
       <c r="H2">
-        <v>12.74300593620174</v>
+        <v>19.89556599191068</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.2904665536146</v>
+        <v>10.79502197558032</v>
       </c>
       <c r="K2">
-        <v>11.67696979808241</v>
+        <v>13.40991361142136</v>
       </c>
       <c r="L2">
-        <v>7.187372486428663</v>
+        <v>11.56925190974325</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.68885404772019</v>
+        <v>22.44695025191375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.91279386544447</v>
+        <v>17.40014836480524</v>
       </c>
       <c r="C3">
-        <v>6.203081163841471</v>
+        <v>6.910647425013416</v>
       </c>
       <c r="D3">
-        <v>4.512886207195773</v>
+        <v>7.400194578092284</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.53783946656461</v>
+        <v>42.8083268271109</v>
       </c>
       <c r="G3">
-        <v>37.56134982876925</v>
+        <v>51.05561208351045</v>
       </c>
       <c r="H3">
-        <v>12.74234879249915</v>
+        <v>19.93910083686117</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.326276288796151</v>
+        <v>10.81593845101952</v>
       </c>
       <c r="K3">
-        <v>11.04602969719627</v>
+        <v>13.30158030741861</v>
       </c>
       <c r="L3">
-        <v>7.051110969396783</v>
+        <v>11.5722954281427</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.90243241415918</v>
+        <v>22.50982070730788</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.368146848781</v>
+        <v>17.30828053950183</v>
       </c>
       <c r="C4">
-        <v>6.101223873140329</v>
+        <v>6.876989603667965</v>
       </c>
       <c r="D4">
-        <v>4.424030142192039</v>
+        <v>7.395897216053584</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.33709832578166</v>
+        <v>42.84589880027156</v>
       </c>
       <c r="G4">
-        <v>37.23518277767198</v>
+        <v>51.08757839454919</v>
       </c>
       <c r="H4">
-        <v>12.74934164229011</v>
+        <v>19.96876376930925</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.350041856346945</v>
+        <v>10.82968070217524</v>
       </c>
       <c r="K4">
-        <v>10.64541258936442</v>
+        <v>13.2374713277506</v>
       </c>
       <c r="L4">
-        <v>6.969350400111204</v>
+        <v>11.57576052964543</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.03690543489943</v>
+        <v>22.55030940353797</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.14193754089011</v>
+        <v>17.27169511313688</v>
       </c>
       <c r="C5">
-        <v>6.059151662519477</v>
+        <v>6.863072993149544</v>
       </c>
       <c r="D5">
-        <v>4.387698891302334</v>
+        <v>7.394389597609566</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.26010122029247</v>
+        <v>42.8632914745974</v>
       </c>
       <c r="G5">
-        <v>37.10915578735015</v>
+        <v>51.10351411892683</v>
       </c>
       <c r="H5">
-        <v>12.75399033886606</v>
+        <v>19.98158870000274</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.360168557972319</v>
+        <v>10.83550741092233</v>
       </c>
       <c r="K5">
-        <v>10.47901393173271</v>
+        <v>13.21197726846942</v>
       </c>
       <c r="L5">
-        <v>6.936541711582516</v>
+        <v>11.57757493157949</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.09255903478736</v>
+        <v>22.56728429321468</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.10412641152747</v>
+        <v>17.2656726402192</v>
       </c>
       <c r="C6">
-        <v>6.052132154389598</v>
+        <v>6.860750139912335</v>
       </c>
       <c r="D6">
-        <v>4.381660346106182</v>
+        <v>7.394154016701249</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.24760396335564</v>
+        <v>42.86630518500321</v>
       </c>
       <c r="G6">
-        <v>37.0886423521908</v>
+        <v>51.10633581266634</v>
       </c>
       <c r="H6">
-        <v>12.75486914545921</v>
+        <v>19.98376277549151</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.361876644004036</v>
+        <v>10.83648863277669</v>
       </c>
       <c r="K6">
-        <v>10.45119963730705</v>
+        <v>13.20778282035649</v>
       </c>
       <c r="L6">
-        <v>6.931125501640049</v>
+        <v>11.5779005371783</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.10185236524454</v>
+        <v>22.57013170928801</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.36511300504961</v>
+        <v>17.30778363892502</v>
       </c>
       <c r="C7">
-        <v>6.100658729498669</v>
+        <v>6.876802727092243</v>
       </c>
       <c r="D7">
-        <v>4.423540587952035</v>
+        <v>7.39587589540159</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.3360405543336</v>
+        <v>42.84612493776351</v>
       </c>
       <c r="G7">
-        <v>37.23345536540001</v>
+        <v>51.08778153581296</v>
       </c>
       <c r="H7">
-        <v>12.74939713174389</v>
+        <v>19.96893374701999</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.35017664528543</v>
+        <v>10.82975836498509</v>
       </c>
       <c r="K7">
-        <v>10.64318094465792</v>
+        <v>13.23712491896482</v>
       </c>
       <c r="L7">
-        <v>6.968905828155483</v>
+        <v>11.57578336908144</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.03765251674067</v>
+        <v>22.55053640635026</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.47871329340553</v>
+        <v>17.50098341040245</v>
       </c>
       <c r="C8">
-        <v>6.309784087617122</v>
+        <v>6.945866080560662</v>
       </c>
       <c r="D8">
-        <v>4.607141013619411</v>
+        <v>7.405608328847517</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.76867829204026</v>
+        <v>42.77535534194074</v>
       </c>
       <c r="G8">
-        <v>37.93318767799953</v>
+        <v>51.03145572064444</v>
       </c>
       <c r="H8">
-        <v>12.74120742853216</v>
+        <v>19.90996801299477</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.302441494924556</v>
+        <v>10.80204756924167</v>
       </c>
       <c r="K8">
-        <v>11.46226183969936</v>
+        <v>13.3720760191097</v>
       </c>
       <c r="L8">
-        <v>7.140012606830243</v>
+        <v>11.56997057323996</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.76181348047469</v>
+        <v>22.46823725726175</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.51191484724675</v>
+        <v>17.90376370382466</v>
       </c>
       <c r="C9">
-        <v>6.700657022165342</v>
+        <v>7.074671446445501</v>
       </c>
       <c r="D9">
-        <v>4.959628254154977</v>
+        <v>7.432251958898312</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.77357821791655</v>
+        <v>42.70238319873661</v>
       </c>
       <c r="G9">
-        <v>39.52821881386793</v>
+        <v>51.01301820802362</v>
       </c>
       <c r="H9">
-        <v>12.78659668202026</v>
+        <v>19.81761706755328</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.223190036088438</v>
+        <v>10.75482313076483</v>
       </c>
       <c r="K9">
-        <v>13.13067424791799</v>
+        <v>13.65465870727267</v>
       </c>
       <c r="L9">
-        <v>7.489328669640558</v>
+        <v>11.571194291128</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.2466110923521</v>
+        <v>22.32175891346313</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.9055708173324</v>
+        <v>18.2118433459051</v>
       </c>
       <c r="C10">
-        <v>6.975313161151396</v>
+        <v>7.165045905643391</v>
       </c>
       <c r="D10">
-        <v>5.211510853859493</v>
+        <v>7.456326710581764</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.61035955678184</v>
+        <v>42.68893973621605</v>
       </c>
       <c r="G10">
-        <v>40.83898143971847</v>
+        <v>51.05564104675904</v>
       </c>
       <c r="H10">
-        <v>12.8612558186563</v>
+        <v>19.76397703691375</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.174087188400303</v>
+        <v>10.7244376860978</v>
       </c>
       <c r="K10">
-        <v>14.338163202877</v>
+        <v>13.87159264337249</v>
       </c>
       <c r="L10">
-        <v>7.752637922423411</v>
+        <v>11.57972470116754</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.88272004256309</v>
+        <v>22.22315340611465</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51677437745551</v>
+        <v>18.35410407365573</v>
       </c>
       <c r="C11">
-        <v>7.097435883999405</v>
+        <v>7.205189695992138</v>
       </c>
       <c r="D11">
-        <v>5.324122036790495</v>
+        <v>7.468230610659608</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.01295165273915</v>
+        <v>42.69154395635798</v>
       </c>
       <c r="G11">
-        <v>41.46589860629252</v>
+        <v>51.08721437471446</v>
       </c>
       <c r="H11">
-        <v>12.9050364711204</v>
+        <v>19.74266337986253</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.153820488679596</v>
+        <v>10.71154461898718</v>
       </c>
       <c r="K11">
-        <v>14.86030236108348</v>
+        <v>13.97194748337582</v>
       </c>
       <c r="L11">
-        <v>7.873532384359821</v>
+        <v>11.58524659856522</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.72012641249419</v>
+        <v>22.18023567694113</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.74489430877781</v>
+        <v>18.4082331819557</v>
       </c>
       <c r="C12">
-        <v>7.143270033273498</v>
+        <v>7.220248105785132</v>
       </c>
       <c r="D12">
-        <v>5.366450927083088</v>
+        <v>7.472872872604346</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.16859449077055</v>
+        <v>42.69378245367218</v>
       </c>
       <c r="G12">
-        <v>41.70773164277945</v>
+        <v>51.10091859717075</v>
       </c>
       <c r="H12">
-        <v>12.92309768771918</v>
+        <v>19.73503658610456</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.146452082678087</v>
+        <v>10.70679554854645</v>
       </c>
       <c r="K12">
-        <v>15.0541850916065</v>
+        <v>14.01015883651547</v>
       </c>
       <c r="L12">
-        <v>7.919446354973449</v>
+        <v>11.58757205096248</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.65896173967157</v>
+        <v>22.16426140021638</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.69591328623265</v>
+        <v>18.39656476385455</v>
       </c>
       <c r="C13">
-        <v>7.133417165944536</v>
+        <v>7.217011437886542</v>
       </c>
       <c r="D13">
-        <v>5.357349078696637</v>
+        <v>7.471867135461334</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.13493157876575</v>
+        <v>42.69324468771763</v>
       </c>
       <c r="G13">
-        <v>41.65545096033524</v>
+        <v>51.09788948006398</v>
       </c>
       <c r="H13">
-        <v>12.91914081080583</v>
+        <v>19.73665939213213</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.148025242858042</v>
+        <v>10.7078124255835</v>
       </c>
       <c r="K13">
-        <v>15.01259870021145</v>
+        <v>14.00192053189059</v>
       </c>
       <c r="L13">
-        <v>7.909552396558654</v>
+        <v>11.58706082360156</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.67211685745444</v>
+        <v>22.16768940998656</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53560889431423</v>
+        <v>18.35855239911935</v>
       </c>
       <c r="C14">
-        <v>7.101214945999308</v>
+        <v>7.20643145230295</v>
       </c>
       <c r="D14">
-        <v>5.327610925562592</v>
+        <v>7.468609850689806</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.02569234742709</v>
+        <v>42.69170303168752</v>
       </c>
       <c r="G14">
-        <v>41.48570535009786</v>
+        <v>51.08830682309531</v>
       </c>
       <c r="H14">
-        <v>12.90649225872665</v>
+        <v>19.74202701476536</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.153208098963991</v>
+        <v>10.71115124174423</v>
       </c>
       <c r="K14">
-        <v>14.87632978865737</v>
+        <v>13.97508714110365</v>
       </c>
       <c r="L14">
-        <v>7.877307212725201</v>
+        <v>11.58543322619935</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.71508631772847</v>
+        <v>22.17891590304468</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.43698302825718</v>
+        <v>18.3353009719776</v>
       </c>
       <c r="C15">
-        <v>7.081436512045101</v>
+        <v>7.199932143749112</v>
       </c>
       <c r="D15">
-        <v>5.309353642733407</v>
+        <v>7.466632113926215</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.95919664418284</v>
+        <v>42.69092175544068</v>
       </c>
       <c r="G15">
-        <v>41.38230940426086</v>
+        <v>51.08266467845528</v>
       </c>
       <c r="H15">
-        <v>12.89893983123631</v>
+        <v>19.74537269641668</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.156422880156541</v>
+        <v>10.71321370500205</v>
       </c>
       <c r="K15">
-        <v>14.79236303106336</v>
+        <v>13.95867722781778</v>
       </c>
       <c r="L15">
-        <v>7.85757280397769</v>
+        <v>11.58446675595464</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.74145872558523</v>
+        <v>22.18582859403623</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.8651636775636</v>
+        <v>18.20258488539504</v>
       </c>
       <c r="C16">
-        <v>6.967274860437264</v>
+        <v>7.162402594296259</v>
       </c>
       <c r="D16">
-        <v>5.204109024079863</v>
+        <v>7.455567719632628</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.58449367674972</v>
+        <v>42.68894489160044</v>
       </c>
       <c r="G16">
-        <v>40.79862980704019</v>
+        <v>51.05382252512134</v>
       </c>
       <c r="H16">
-        <v>12.85859821900388</v>
+        <v>19.76543208501504</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.175454032113188</v>
+        <v>10.72529894682794</v>
       </c>
       <c r="K16">
-        <v>14.30349923389912</v>
+        <v>13.86506518209087</v>
       </c>
       <c r="L16">
-        <v>7.744757289923316</v>
+        <v>11.57939672702105</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.89340365670356</v>
+        <v>22.22599710014711</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.50849051556528</v>
+        <v>18.12167662828056</v>
       </c>
       <c r="C17">
-        <v>6.89651316761951</v>
+        <v>7.139128650024223</v>
       </c>
       <c r="D17">
-        <v>5.13901643825456</v>
+        <v>7.449022269572954</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.36026944155078</v>
+        <v>42.68996460844599</v>
       </c>
       <c r="G17">
-        <v>40.44842867764827</v>
+        <v>51.03924707764406</v>
       </c>
       <c r="H17">
-        <v>12.83641438776591</v>
+        <v>19.77852884072141</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.187665097189424</v>
+        <v>10.73295061628984</v>
       </c>
       <c r="K17">
-        <v>13.99668744589248</v>
+        <v>13.8080430419785</v>
       </c>
       <c r="L17">
-        <v>7.675814374089578</v>
+        <v>11.57670572545305</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.98735828334788</v>
+        <v>22.25113493100191</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.30119915379303</v>
+        <v>18.07534205577191</v>
       </c>
       <c r="C18">
-        <v>6.855547639940131</v>
+        <v>7.125651212771963</v>
       </c>
       <c r="D18">
-        <v>5.101392912364547</v>
+        <v>7.445347274435401</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.23336432740488</v>
+        <v>42.69137200249132</v>
       </c>
       <c r="G18">
-        <v>40.24988520025502</v>
+        <v>51.03201081261047</v>
       </c>
       <c r="H18">
-        <v>12.82457463811165</v>
+        <v>19.78635234308762</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.194882913441477</v>
+        <v>10.73743915940892</v>
       </c>
       <c r="K18">
-        <v>13.8176575479188</v>
+        <v>13.77540452685002</v>
       </c>
       <c r="L18">
-        <v>7.636266491211403</v>
+        <v>11.57531252952542</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.04167644638751</v>
+        <v>22.26577605788373</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23064796784116</v>
+        <v>18.05969000760951</v>
       </c>
       <c r="C19">
-        <v>6.841632079119828</v>
+        <v>7.121072497700258</v>
       </c>
       <c r="D19">
-        <v>5.088623649906238</v>
+        <v>7.444118474613197</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.19074961904154</v>
+        <v>42.6919895441352</v>
       </c>
       <c r="G19">
-        <v>40.18315615077314</v>
+        <v>51.02975785687679</v>
       </c>
       <c r="H19">
-        <v>12.82072174794051</v>
+        <v>19.78905114792967</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.197359873451568</v>
+        <v>10.73897394421256</v>
       </c>
       <c r="K19">
-        <v>13.75659952142203</v>
+        <v>13.76438195741659</v>
       </c>
       <c r="L19">
-        <v>7.622895350733812</v>
+        <v>11.57486741616525</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.06011590593748</v>
+        <v>22.27076466929884</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.54668118393952</v>
+        <v>18.13026890564116</v>
       </c>
       <c r="C20">
-        <v>6.904073376374918</v>
+        <v>7.141615635914802</v>
       </c>
       <c r="D20">
-        <v>5.145964936396455</v>
+        <v>7.449709769663445</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.38392475023236</v>
+        <v>42.68977110871837</v>
       </c>
       <c r="G20">
-        <v>40.48540962485631</v>
+        <v>51.04067995727951</v>
       </c>
       <c r="H20">
-        <v>12.83868019077532</v>
+        <v>19.77710459120869</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.186345036709144</v>
+        <v>10.73212702942884</v>
       </c>
       <c r="K20">
-        <v>14.02961256327947</v>
+        <v>13.81409690313554</v>
       </c>
       <c r="L20">
-        <v>7.68314266654736</v>
+        <v>11.5769761981387</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.97732801124129</v>
+        <v>22.24844008405307</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58278485395401</v>
+        <v>18.36971091439888</v>
       </c>
       <c r="C21">
-        <v>7.110684703388473</v>
+        <v>7.209542967474526</v>
       </c>
       <c r="D21">
-        <v>5.336354503389565</v>
+        <v>7.469562963282364</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.05769169963575</v>
+        <v>42.69212188138161</v>
       </c>
       <c r="G21">
-        <v>41.53544321523495</v>
+        <v>51.09107407815296</v>
       </c>
       <c r="H21">
-        <v>12.91016664266121</v>
+        <v>19.74043835600033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.151677388959989</v>
+        <v>10.71016693715805</v>
       </c>
       <c r="K21">
-        <v>14.91645895793564</v>
+        <v>13.98296333035811</v>
       </c>
       <c r="L21">
-        <v>7.88677496825431</v>
+        <v>11.5859049419955</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.70245426123009</v>
+        <v>22.17561088016156</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.2405228270287</v>
+        <v>18.5276830085142</v>
       </c>
       <c r="C22">
-        <v>7.243320845151059</v>
+        <v>7.253101100189155</v>
       </c>
       <c r="D22">
-        <v>5.458940531414188</v>
+        <v>7.483321023927765</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.51664797774879</v>
+        <v>42.70095658035189</v>
       </c>
       <c r="G22">
-        <v>42.24755540404833</v>
+        <v>51.13419583945335</v>
       </c>
       <c r="H22">
-        <v>12.96556170197049</v>
+        <v>19.71906421489232</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.130808992936417</v>
+        <v>10.69659127406122</v>
       </c>
       <c r="K22">
-        <v>15.47371399426679</v>
+        <v>14.09453192973126</v>
       </c>
       <c r="L22">
-        <v>8.020630472553519</v>
+        <v>11.59310600030418</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.52516725107839</v>
+        <v>22.12963118700005</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.89126387366979</v>
+        <v>18.44324980333062</v>
       </c>
       <c r="C23">
-        <v>7.172750694718152</v>
+        <v>7.229931119447663</v>
       </c>
       <c r="D23">
-        <v>5.393691951634304</v>
+        <v>7.475907281588233</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.26997959604729</v>
+        <v>42.69557423883795</v>
       </c>
       <c r="G23">
-        <v>41.86511246936775</v>
+        <v>51.11025059648095</v>
       </c>
       <c r="H23">
-        <v>12.93517889968345</v>
+        <v>19.73023500083623</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.141780194256138</v>
+        <v>10.70376593854752</v>
       </c>
       <c r="K23">
-        <v>15.17831935989554</v>
+        <v>14.03488573747843</v>
       </c>
       <c r="L23">
-        <v>7.949126792276827</v>
+        <v>11.58913826618174</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.61957837326094</v>
+        <v>22.15402365888813</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.52942214056131</v>
+        <v>18.1263837707915</v>
       </c>
       <c r="C24">
-        <v>6.900656289154483</v>
+        <v>7.140491571255275</v>
       </c>
       <c r="D24">
-        <v>5.142824143837909</v>
+        <v>7.449398676373341</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.37322394462962</v>
+        <v>42.68985603196737</v>
       </c>
       <c r="G24">
-        <v>40.46868184466307</v>
+        <v>51.04002859056615</v>
       </c>
       <c r="H24">
-        <v>12.83765297956568</v>
+        <v>19.77774757859589</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.186941221474764</v>
+        <v>10.73249909424381</v>
       </c>
       <c r="K24">
-        <v>14.0147353446794</v>
+        <v>13.8113595007341</v>
       </c>
       <c r="L24">
-        <v>7.67982926840744</v>
+        <v>11.5768534379493</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.98186175406429</v>
+        <v>22.24965783535664</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.97900133649157</v>
+        <v>17.79248700049386</v>
       </c>
       <c r="C25">
-        <v>6.597066951317335</v>
+        <v>7.040558472740519</v>
       </c>
       <c r="D25">
-        <v>4.865352872052561</v>
+        <v>7.424245660522115</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.48462509613839</v>
+        <v>42.71507102914425</v>
       </c>
       <c r="G25">
-        <v>39.07250163607343</v>
+        <v>51.00814180708233</v>
       </c>
       <c r="H25">
-        <v>12.7673449249705</v>
+        <v>19.84010607257466</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.243056194401697</v>
+        <v>10.76683964330297</v>
       </c>
       <c r="K25">
-        <v>12.6615139068374</v>
+        <v>13.57645581693575</v>
       </c>
       <c r="L25">
-        <v>7.393537251894501</v>
+        <v>11.56951801484705</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.38334186170609</v>
+        <v>22.3597970231451</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55503691331002</v>
+        <v>15.7706517688774</v>
       </c>
       <c r="C2">
-        <v>6.964138495425454</v>
+        <v>6.365182034583595</v>
       </c>
       <c r="D2">
-        <v>7.408760566910734</v>
+        <v>4.656478549818928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.76063026919137</v>
+        <v>29.89635927874144</v>
       </c>
       <c r="G2">
-        <v>51.02241540517826</v>
+        <v>38.1377180766811</v>
       </c>
       <c r="H2">
-        <v>19.89556599191068</v>
+        <v>12.74300593620174</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.79502197558032</v>
+        <v>6.290466553614631</v>
       </c>
       <c r="K2">
-        <v>13.40991361142136</v>
+        <v>11.67696979808242</v>
       </c>
       <c r="L2">
-        <v>11.56925190974325</v>
+        <v>7.187372486428659</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.44695025191375</v>
+        <v>14.68885404772019</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.40014836480524</v>
+        <v>14.91279386544445</v>
       </c>
       <c r="C3">
-        <v>6.910647425013416</v>
+        <v>6.203081163841352</v>
       </c>
       <c r="D3">
-        <v>7.400194578092284</v>
+        <v>4.51288620719591</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.8083268271109</v>
+        <v>29.53783946656462</v>
       </c>
       <c r="G3">
-        <v>51.05561208351045</v>
+        <v>37.56134982876902</v>
       </c>
       <c r="H3">
-        <v>19.93910083686117</v>
+        <v>12.74234879249919</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.81593845101952</v>
+        <v>6.326276288796118</v>
       </c>
       <c r="K3">
-        <v>13.30158030741861</v>
+        <v>11.04602969719627</v>
       </c>
       <c r="L3">
-        <v>11.5722954281427</v>
+        <v>7.051110969396857</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.50982070730788</v>
+        <v>14.90243241415911</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.30828053950183</v>
+        <v>14.36814684878101</v>
       </c>
       <c r="C4">
-        <v>6.876989603667965</v>
+        <v>6.101223873140201</v>
       </c>
       <c r="D4">
-        <v>7.395897216053584</v>
+        <v>4.42403014219195</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.84589880027156</v>
+        <v>29.33709832578171</v>
       </c>
       <c r="G4">
-        <v>51.08757839454919</v>
+        <v>37.23518277767209</v>
       </c>
       <c r="H4">
-        <v>19.96876376930925</v>
+        <v>12.74934164229018</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.82968070217524</v>
+        <v>6.35004185634697</v>
       </c>
       <c r="K4">
-        <v>13.2374713277506</v>
+        <v>10.64541258936443</v>
       </c>
       <c r="L4">
-        <v>11.57576052964543</v>
+        <v>6.969350400111243</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.55030940353797</v>
+        <v>15.03690543489949</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.27169511313688</v>
+        <v>14.14193754089012</v>
       </c>
       <c r="C5">
-        <v>6.863072993149544</v>
+        <v>6.05915166251935</v>
       </c>
       <c r="D5">
-        <v>7.394389597609566</v>
+        <v>4.387698891302321</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.8632914745974</v>
+        <v>29.26010122029253</v>
       </c>
       <c r="G5">
-        <v>51.10351411892683</v>
+        <v>37.10915578735021</v>
       </c>
       <c r="H5">
-        <v>19.98158870000274</v>
+        <v>12.75399033886612</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.83550741092233</v>
+        <v>6.36016855797229</v>
       </c>
       <c r="K5">
-        <v>13.21197726846942</v>
+        <v>10.47901393173271</v>
       </c>
       <c r="L5">
-        <v>11.57757493157949</v>
+        <v>6.936541711582509</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.56728429321468</v>
+        <v>15.09255903478739</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.2656726402192</v>
+        <v>14.1041264115274</v>
       </c>
       <c r="C6">
-        <v>6.860750139912335</v>
+        <v>6.052132154389356</v>
       </c>
       <c r="D6">
-        <v>7.394154016701249</v>
+        <v>4.381660346106178</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.86630518500321</v>
+        <v>29.24760396335554</v>
       </c>
       <c r="G6">
-        <v>51.10633581266634</v>
+        <v>37.08864235219069</v>
       </c>
       <c r="H6">
-        <v>19.98376277549151</v>
+        <v>12.75486914545915</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.83648863277669</v>
+        <v>6.361876644003911</v>
       </c>
       <c r="K6">
-        <v>13.20778282035649</v>
+        <v>10.45119963730703</v>
       </c>
       <c r="L6">
-        <v>11.5779005371783</v>
+        <v>6.931125501640015</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.57013170928801</v>
+        <v>15.10185236524451</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.30778363892502</v>
+        <v>14.36511300504958</v>
       </c>
       <c r="C7">
-        <v>6.876802727092243</v>
+        <v>6.100658729498934</v>
       </c>
       <c r="D7">
-        <v>7.39587589540159</v>
+        <v>4.423540587952131</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.84612493776351</v>
+        <v>29.33604055433337</v>
       </c>
       <c r="G7">
-        <v>51.08778153581296</v>
+        <v>37.23345536539946</v>
       </c>
       <c r="H7">
-        <v>19.96893374701999</v>
+        <v>12.74939713174383</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.82975836498509</v>
+        <v>6.3501766452854</v>
       </c>
       <c r="K7">
-        <v>13.23712491896482</v>
+        <v>10.64318094465788</v>
       </c>
       <c r="L7">
-        <v>11.57578336908144</v>
+        <v>6.968905828155425</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.55053640635026</v>
+        <v>15.03765251674056</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50098341040245</v>
+        <v>15.47871329340551</v>
       </c>
       <c r="C8">
-        <v>6.945866080560662</v>
+        <v>6.309784087617127</v>
       </c>
       <c r="D8">
-        <v>7.405608328847517</v>
+        <v>4.607141013619417</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.77535534194074</v>
+        <v>29.76867829204015</v>
       </c>
       <c r="G8">
-        <v>51.03145572064444</v>
+        <v>37.93318767799931</v>
       </c>
       <c r="H8">
-        <v>19.90996801299477</v>
+        <v>12.74120742853215</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.80204756924167</v>
+        <v>6.302441494924646</v>
       </c>
       <c r="K8">
-        <v>13.3720760191097</v>
+        <v>11.46226183969936</v>
       </c>
       <c r="L8">
-        <v>11.56997057323996</v>
+        <v>7.140012606830267</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.46823725726175</v>
+        <v>14.76181348047465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.90376370382466</v>
+        <v>17.51191484724677</v>
       </c>
       <c r="C9">
-        <v>7.074671446445501</v>
+        <v>6.700657022165676</v>
       </c>
       <c r="D9">
-        <v>7.432251958898312</v>
+        <v>4.959628254154983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.70238319873661</v>
+        <v>30.7735782179165</v>
       </c>
       <c r="G9">
-        <v>51.01301820802362</v>
+        <v>39.52821881386783</v>
       </c>
       <c r="H9">
-        <v>19.81761706755328</v>
+        <v>12.78659668202021</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.75482313076483</v>
+        <v>6.223190036088346</v>
       </c>
       <c r="K9">
-        <v>13.65465870727267</v>
+        <v>13.130674247918</v>
       </c>
       <c r="L9">
-        <v>11.571194291128</v>
+        <v>7.489328669640545</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.32175891346313</v>
+        <v>14.24661109235206</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.2118433459051</v>
+        <v>18.90557081733238</v>
       </c>
       <c r="C10">
-        <v>7.165045905643391</v>
+        <v>6.975313161151167</v>
       </c>
       <c r="D10">
-        <v>7.456326710581764</v>
+        <v>5.211510853859502</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.68893973621605</v>
+        <v>31.61035955678172</v>
       </c>
       <c r="G10">
-        <v>51.05564104675904</v>
+        <v>40.83898143971826</v>
       </c>
       <c r="H10">
-        <v>19.76397703691375</v>
+        <v>12.86125581865615</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.7244376860978</v>
+        <v>6.174087188400303</v>
       </c>
       <c r="K10">
-        <v>13.87159264337249</v>
+        <v>14.33816320287703</v>
       </c>
       <c r="L10">
-        <v>11.57972470116754</v>
+        <v>7.752637922423461</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.22315340611465</v>
+        <v>13.88272004256302</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.35410407365573</v>
+        <v>19.51677437745552</v>
       </c>
       <c r="C11">
-        <v>7.205189695992138</v>
+        <v>7.097435883999395</v>
       </c>
       <c r="D11">
-        <v>7.468230610659608</v>
+        <v>5.324122036790537</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.69154395635798</v>
+        <v>32.0129516527392</v>
       </c>
       <c r="G11">
-        <v>51.08721437471446</v>
+        <v>41.46589860629252</v>
       </c>
       <c r="H11">
-        <v>19.74266337986253</v>
+        <v>12.90503647112036</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.71154461898718</v>
+        <v>6.153820488679596</v>
       </c>
       <c r="K11">
-        <v>13.97194748337582</v>
+        <v>14.86030236108346</v>
       </c>
       <c r="L11">
-        <v>11.58524659856522</v>
+        <v>7.873532384359888</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.18023567694113</v>
+        <v>13.72012641249416</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.4082331819557</v>
+        <v>19.74489430877779</v>
       </c>
       <c r="C12">
-        <v>7.220248105785132</v>
+        <v>7.143270033273592</v>
       </c>
       <c r="D12">
-        <v>7.472872872604346</v>
+        <v>5.366450927083101</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.69378245367218</v>
+        <v>32.1685944907705</v>
       </c>
       <c r="G12">
-        <v>51.10091859717075</v>
+        <v>41.70773164277935</v>
       </c>
       <c r="H12">
-        <v>19.73503658610456</v>
+        <v>12.92309768771918</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.70679554854645</v>
+        <v>6.146452082678147</v>
       </c>
       <c r="K12">
-        <v>14.01015883651547</v>
+        <v>15.05418509160652</v>
       </c>
       <c r="L12">
-        <v>11.58757205096248</v>
+        <v>7.919446354973485</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.16426140021638</v>
+        <v>13.6589617396716</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.39656476385455</v>
+        <v>19.69591328623264</v>
       </c>
       <c r="C13">
-        <v>7.217011437886542</v>
+        <v>7.133417165944413</v>
       </c>
       <c r="D13">
-        <v>7.471867135461334</v>
+        <v>5.357349078696588</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.69324468771763</v>
+        <v>32.13493157876578</v>
       </c>
       <c r="G13">
-        <v>51.09788948006398</v>
+        <v>41.65545096033518</v>
       </c>
       <c r="H13">
-        <v>19.73665939213213</v>
+        <v>12.9191408108059</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.7078124255835</v>
+        <v>6.148025242858099</v>
       </c>
       <c r="K13">
-        <v>14.00192053189059</v>
+        <v>15.0125987002114</v>
       </c>
       <c r="L13">
-        <v>11.58706082360156</v>
+        <v>7.90955239655861</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.16768940998656</v>
+        <v>13.67211685745447</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.35855239911935</v>
+        <v>19.53560889431424</v>
       </c>
       <c r="C14">
-        <v>7.20643145230295</v>
+        <v>7.101214945999298</v>
       </c>
       <c r="D14">
-        <v>7.468609850689806</v>
+        <v>5.327610925562561</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.69170303168752</v>
+        <v>32.02569234742714</v>
       </c>
       <c r="G14">
-        <v>51.08830682309531</v>
+        <v>41.48570535009797</v>
       </c>
       <c r="H14">
-        <v>19.74202701476536</v>
+        <v>12.90649225872665</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.71115124174423</v>
+        <v>6.153208098963966</v>
       </c>
       <c r="K14">
-        <v>13.97508714110365</v>
+        <v>14.87632978865736</v>
       </c>
       <c r="L14">
-        <v>11.58543322619935</v>
+        <v>7.877307212725173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.17891590304468</v>
+        <v>13.71508631772853</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3353009719776</v>
+        <v>19.43698302825718</v>
       </c>
       <c r="C15">
-        <v>7.199932143749112</v>
+        <v>7.081436512044993</v>
       </c>
       <c r="D15">
-        <v>7.466632113926215</v>
+        <v>5.309353642733326</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.69092175544068</v>
+        <v>31.95919664418289</v>
       </c>
       <c r="G15">
-        <v>51.08266467845528</v>
+        <v>41.38230940426103</v>
       </c>
       <c r="H15">
-        <v>19.74537269641668</v>
+        <v>12.89893983123631</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.71321370500205</v>
+        <v>6.156422880156683</v>
       </c>
       <c r="K15">
-        <v>13.95867722781778</v>
+        <v>14.79236303106331</v>
       </c>
       <c r="L15">
-        <v>11.58446675595464</v>
+        <v>7.857572803977756</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.18582859403623</v>
+        <v>13.74145872558527</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.20258488539504</v>
+        <v>18.86516367756361</v>
       </c>
       <c r="C16">
-        <v>7.162402594296259</v>
+        <v>6.96727486043724</v>
       </c>
       <c r="D16">
-        <v>7.455567719632628</v>
+        <v>5.20410902407981</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.68894489160044</v>
+        <v>31.58449367674951</v>
       </c>
       <c r="G16">
-        <v>51.05382252512134</v>
+        <v>40.79862980704002</v>
       </c>
       <c r="H16">
-        <v>19.76543208501504</v>
+        <v>12.85859821900379</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.72529894682794</v>
+        <v>6.175454032113219</v>
       </c>
       <c r="K16">
-        <v>13.86506518209087</v>
+        <v>14.30349923389914</v>
       </c>
       <c r="L16">
-        <v>11.57939672702105</v>
+        <v>7.744757289923323</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.22599710014711</v>
+        <v>13.89340365670346</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12167662828056</v>
+        <v>18.50849051556526</v>
       </c>
       <c r="C17">
-        <v>7.139128650024223</v>
+        <v>6.896513167619384</v>
       </c>
       <c r="D17">
-        <v>7.449022269572954</v>
+        <v>5.139016438254508</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.68996460844599</v>
+        <v>31.36026944155076</v>
       </c>
       <c r="G17">
-        <v>51.03924707764406</v>
+        <v>40.44842867764831</v>
       </c>
       <c r="H17">
-        <v>19.77852884072141</v>
+        <v>12.83641438776591</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.73295061628984</v>
+        <v>6.187665097189488</v>
       </c>
       <c r="K17">
-        <v>13.8080430419785</v>
+        <v>13.99668744589244</v>
       </c>
       <c r="L17">
-        <v>11.57670572545305</v>
+        <v>7.675814374089615</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.25113493100191</v>
+        <v>13.98735828334788</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.07534205577191</v>
+        <v>18.30119915379303</v>
       </c>
       <c r="C18">
-        <v>7.125651212771963</v>
+        <v>6.855547639940158</v>
       </c>
       <c r="D18">
-        <v>7.445347274435401</v>
+        <v>5.101392912364487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.69137200249132</v>
+        <v>31.23336432740483</v>
       </c>
       <c r="G18">
-        <v>51.03201081261047</v>
+        <v>40.249885200255</v>
       </c>
       <c r="H18">
-        <v>19.78635234308762</v>
+        <v>12.82457463811165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.73743915940892</v>
+        <v>6.194882913441541</v>
       </c>
       <c r="K18">
-        <v>13.77540452685002</v>
+        <v>13.81765754791885</v>
       </c>
       <c r="L18">
-        <v>11.57531252952542</v>
+        <v>7.636266491211419</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.26577605788373</v>
+        <v>14.04167644638751</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.05969000760951</v>
+        <v>18.23064796784114</v>
       </c>
       <c r="C19">
-        <v>7.121072497700258</v>
+        <v>6.841632079119845</v>
       </c>
       <c r="D19">
-        <v>7.444118474613197</v>
+        <v>5.088623649906238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.6919895441352</v>
+        <v>31.1907496190415</v>
       </c>
       <c r="G19">
-        <v>51.02975785687679</v>
+        <v>40.18315615077316</v>
       </c>
       <c r="H19">
-        <v>19.78905114792967</v>
+        <v>12.82072174794046</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.73897394421256</v>
+        <v>6.197359873451568</v>
       </c>
       <c r="K19">
-        <v>13.76438195741659</v>
+        <v>13.75659952142205</v>
       </c>
       <c r="L19">
-        <v>11.57486741616525</v>
+        <v>7.622895350733814</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.27076466929884</v>
+        <v>14.06011590593745</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.13026890564116</v>
+        <v>18.54668118393955</v>
       </c>
       <c r="C20">
-        <v>7.141615635914802</v>
+        <v>6.90407337637491</v>
       </c>
       <c r="D20">
-        <v>7.449709769663445</v>
+        <v>5.145964936396362</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.68977110871837</v>
+        <v>31.38392475023246</v>
       </c>
       <c r="G20">
-        <v>51.04067995727951</v>
+        <v>40.48540962485659</v>
       </c>
       <c r="H20">
-        <v>19.77710459120869</v>
+        <v>12.83868019077537</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.73212702942884</v>
+        <v>6.186345036709113</v>
       </c>
       <c r="K20">
-        <v>13.81409690313554</v>
+        <v>14.02961256327943</v>
       </c>
       <c r="L20">
-        <v>11.5769761981387</v>
+        <v>7.683142666547281</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.24844008405307</v>
+        <v>13.97732801124138</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.36971091439888</v>
+        <v>19.58278485395399</v>
       </c>
       <c r="C21">
-        <v>7.209542967474526</v>
+        <v>7.110684703388372</v>
       </c>
       <c r="D21">
-        <v>7.469562963282364</v>
+        <v>5.33635450338955</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.69212188138161</v>
+        <v>32.05769169963568</v>
       </c>
       <c r="G21">
-        <v>51.09107407815296</v>
+        <v>41.53544321523489</v>
       </c>
       <c r="H21">
-        <v>19.74043835600033</v>
+        <v>12.91016664266115</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.71016693715805</v>
+        <v>6.151677388960018</v>
       </c>
       <c r="K21">
-        <v>13.98296333035811</v>
+        <v>14.91645895793566</v>
       </c>
       <c r="L21">
-        <v>11.5859049419955</v>
+        <v>7.8867749682543</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.17561088016156</v>
+        <v>13.70245426123005</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.5276830085142</v>
+        <v>20.24052282702871</v>
       </c>
       <c r="C22">
-        <v>7.253101100189155</v>
+        <v>7.243320845151054</v>
       </c>
       <c r="D22">
-        <v>7.483321023927765</v>
+        <v>5.458940531414144</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.70095658035189</v>
+        <v>32.51664797774868</v>
       </c>
       <c r="G22">
-        <v>51.13419583945335</v>
+        <v>42.24755540404828</v>
       </c>
       <c r="H22">
-        <v>19.71906421489232</v>
+        <v>12.96556170197045</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.69659127406122</v>
+        <v>6.130808992936449</v>
       </c>
       <c r="K22">
-        <v>14.09453192973126</v>
+        <v>15.47371399426683</v>
       </c>
       <c r="L22">
-        <v>11.59310600030418</v>
+        <v>8.020630472553462</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.12963118700005</v>
+        <v>13.52516725107836</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44324980333062</v>
+        <v>19.89126387366979</v>
       </c>
       <c r="C23">
-        <v>7.229931119447663</v>
+        <v>7.172750694718364</v>
       </c>
       <c r="D23">
-        <v>7.475907281588233</v>
+        <v>5.3936919516343</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.69557423883795</v>
+        <v>32.26997959604706</v>
       </c>
       <c r="G23">
-        <v>51.11025059648095</v>
+        <v>41.86511246936735</v>
       </c>
       <c r="H23">
-        <v>19.73023500083623</v>
+        <v>12.93517889968332</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.70376593854752</v>
+        <v>6.141780194256055</v>
       </c>
       <c r="K23">
-        <v>14.03488573747843</v>
+        <v>15.1783193598956</v>
       </c>
       <c r="L23">
-        <v>11.58913826618174</v>
+        <v>7.949126792276763</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.15402365888813</v>
+        <v>13.6195783732608</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.1263837707915</v>
+        <v>18.52942214056129</v>
       </c>
       <c r="C24">
-        <v>7.140491571255275</v>
+        <v>6.900656289154244</v>
       </c>
       <c r="D24">
-        <v>7.449398676373341</v>
+        <v>5.142824143837902</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.68985603196737</v>
+        <v>31.37322394462964</v>
       </c>
       <c r="G24">
-        <v>51.04002859056615</v>
+        <v>40.46868184466308</v>
       </c>
       <c r="H24">
-        <v>19.77774757859589</v>
+        <v>12.83765297956571</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.73249909424381</v>
+        <v>6.186941221474799</v>
       </c>
       <c r="K24">
-        <v>13.8113595007341</v>
+        <v>14.01473534467938</v>
       </c>
       <c r="L24">
-        <v>11.5768534379493</v>
+        <v>7.679829268407509</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.24965783535664</v>
+        <v>13.98186175406432</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.79248700049386</v>
+        <v>16.97900133649157</v>
       </c>
       <c r="C25">
-        <v>7.040558472740519</v>
+        <v>6.597066951317343</v>
       </c>
       <c r="D25">
-        <v>7.424245660522115</v>
+        <v>4.8653528720526</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.71507102914425</v>
+        <v>30.48462509613856</v>
       </c>
       <c r="G25">
-        <v>51.00814180708233</v>
+        <v>39.07250163607358</v>
       </c>
       <c r="H25">
-        <v>19.84010607257466</v>
+        <v>12.76734492497062</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.76683964330297</v>
+        <v>6.243056194401697</v>
       </c>
       <c r="K25">
-        <v>13.57645581693575</v>
+        <v>12.66151390683741</v>
       </c>
       <c r="L25">
-        <v>11.56951801484705</v>
+        <v>7.39353725189454</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.3597970231451</v>
+        <v>14.38334186170619</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.7706517688774</v>
+        <v>20.53877667482739</v>
       </c>
       <c r="C2">
-        <v>6.365182034583595</v>
+        <v>16.50506307669639</v>
       </c>
       <c r="D2">
-        <v>4.656478549818928</v>
+        <v>6.557259145063981</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.89635927874144</v>
+        <v>27.25537796666447</v>
       </c>
       <c r="G2">
-        <v>38.1377180766811</v>
+        <v>33.06702133651286</v>
       </c>
       <c r="H2">
-        <v>12.74300593620174</v>
+        <v>2.036520874070443</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.473289703943972</v>
       </c>
       <c r="J2">
-        <v>6.290466553614631</v>
+        <v>10.97700704549722</v>
       </c>
       <c r="K2">
-        <v>11.67696979808242</v>
+        <v>15.67506821183321</v>
       </c>
       <c r="L2">
-        <v>7.187372486428659</v>
+        <v>7.235976196862745</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.68885404772019</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.4879901645545</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.91279386544445</v>
+        <v>19.19062109078062</v>
       </c>
       <c r="C3">
-        <v>6.203081163841352</v>
+        <v>15.42839477168413</v>
       </c>
       <c r="D3">
-        <v>4.51288620719591</v>
+        <v>6.308971762740765</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.53783946656462</v>
+        <v>26.48583942666551</v>
       </c>
       <c r="G3">
-        <v>37.56134982876902</v>
+        <v>31.90778559129744</v>
       </c>
       <c r="H3">
-        <v>12.74234879249919</v>
+        <v>2.301196216858096</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.68260360189834</v>
       </c>
       <c r="J3">
-        <v>6.326276288796118</v>
+        <v>10.86630978539966</v>
       </c>
       <c r="K3">
-        <v>11.04602969719627</v>
+        <v>15.68239512177634</v>
       </c>
       <c r="L3">
-        <v>7.051110969396857</v>
+        <v>7.076374054120435</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.90243241415911</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.56735128334576</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.36814684878101</v>
+        <v>18.31272731492888</v>
       </c>
       <c r="C4">
-        <v>6.101223873140201</v>
+        <v>14.73387830137894</v>
       </c>
       <c r="D4">
-        <v>4.42403014219195</v>
+        <v>6.152683547421105</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.33709832578171</v>
+        <v>26.01034287568801</v>
       </c>
       <c r="G4">
-        <v>37.23518277767209</v>
+        <v>31.18833953858285</v>
       </c>
       <c r="H4">
-        <v>12.74934164229018</v>
+        <v>2.4691900043429</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.816076153746951</v>
       </c>
       <c r="J4">
-        <v>6.35004185634697</v>
+        <v>10.80151126676526</v>
       </c>
       <c r="K4">
-        <v>10.64541258936443</v>
+        <v>15.69187466761134</v>
       </c>
       <c r="L4">
-        <v>6.969350400111243</v>
+        <v>6.975319757743232</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.03690543489949</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.97597864403933</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.14193754089012</v>
+        <v>17.9413497519618</v>
       </c>
       <c r="C5">
-        <v>6.05915166251935</v>
+        <v>14.45395187437781</v>
       </c>
       <c r="D5">
-        <v>4.387698891302321</v>
+        <v>6.091059924277785</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.26010122029253</v>
+        <v>25.79987520044755</v>
       </c>
       <c r="G5">
-        <v>37.10915578735021</v>
+        <v>30.86390565732545</v>
       </c>
       <c r="H5">
-        <v>12.75399033886612</v>
+        <v>2.539312430846258</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.874753670346182</v>
       </c>
       <c r="J5">
-        <v>6.36016855797229</v>
+        <v>10.77036408377339</v>
       </c>
       <c r="K5">
-        <v>10.47901393173271</v>
+        <v>15.68573133838043</v>
       </c>
       <c r="L5">
-        <v>6.936541711582509</v>
+        <v>6.932717770548385</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.09255903478739</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.73155100623749</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.1041264115274</v>
+        <v>17.87772270314415</v>
       </c>
       <c r="C6">
-        <v>6.052132154389356</v>
+        <v>14.42105455892158</v>
       </c>
       <c r="D6">
-        <v>4.381660346106178</v>
+        <v>6.084426798158399</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.24760396335554</v>
+        <v>25.74514112008069</v>
       </c>
       <c r="G6">
-        <v>37.08864235219069</v>
+        <v>30.77363725448075</v>
       </c>
       <c r="H6">
-        <v>12.75486914545915</v>
+        <v>2.551356295680736</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.888473428922371</v>
       </c>
       <c r="J6">
-        <v>6.361876644003911</v>
+        <v>10.75848257373804</v>
       </c>
       <c r="K6">
-        <v>10.45119963730703</v>
+        <v>15.67111311006805</v>
       </c>
       <c r="L6">
-        <v>6.931125501640015</v>
+        <v>6.92479401194543</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.10185236524451</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.69422753130677</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.36511300504958</v>
+        <v>18.30458356332594</v>
       </c>
       <c r="C7">
-        <v>6.100658729498934</v>
+        <v>14.76770178831975</v>
       </c>
       <c r="D7">
-        <v>4.423540587952131</v>
+        <v>6.161696546482641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.33604055433337</v>
+        <v>25.95407244456814</v>
       </c>
       <c r="G7">
-        <v>37.23345536539946</v>
+        <v>31.08596883189793</v>
       </c>
       <c r="H7">
-        <v>12.74939713174383</v>
+        <v>2.470974712001032</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.827242048309901</v>
       </c>
       <c r="J7">
-        <v>6.3501766452854</v>
+        <v>10.78271141491553</v>
       </c>
       <c r="K7">
-        <v>10.64318094465788</v>
+        <v>15.65448036269285</v>
       </c>
       <c r="L7">
-        <v>6.968905828155425</v>
+        <v>6.972580773457215</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.03765251674056</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.9824519916627</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.47871329340551</v>
+        <v>20.08040492071911</v>
       </c>
       <c r="C8">
-        <v>6.309784087617127</v>
+        <v>16.18660343721107</v>
       </c>
       <c r="D8">
-        <v>4.607141013619417</v>
+        <v>6.484895512647921</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.76867829204015</v>
+        <v>26.92261940881371</v>
       </c>
       <c r="G8">
-        <v>37.93318767799931</v>
+        <v>32.545020236163</v>
       </c>
       <c r="H8">
-        <v>12.74120742853215</v>
+        <v>2.127716187987731</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.558073984509447</v>
       </c>
       <c r="J8">
-        <v>6.302441494924646</v>
+        <v>10.91425279094442</v>
       </c>
       <c r="K8">
-        <v>11.46226183969936</v>
+        <v>15.6273833255753</v>
       </c>
       <c r="L8">
-        <v>7.140012606830267</v>
+        <v>7.178836581566647</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.76181348047465</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.18802481495645</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.51191484724677</v>
+        <v>23.17260018741651</v>
       </c>
       <c r="C9">
-        <v>6.700657022165676</v>
+        <v>18.64539888595994</v>
       </c>
       <c r="D9">
-        <v>4.959628254154983</v>
+        <v>7.070034178042893</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.7735782179165</v>
+        <v>28.88063787031379</v>
       </c>
       <c r="G9">
-        <v>39.52821881386783</v>
+        <v>35.49620901747758</v>
       </c>
       <c r="H9">
-        <v>12.78659668202021</v>
+        <v>1.624153837018576</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.890615245568459</v>
       </c>
       <c r="J9">
-        <v>6.223190036088346</v>
+        <v>11.2300906665105</v>
       </c>
       <c r="K9">
-        <v>13.130674247918</v>
+        <v>15.6834243086742</v>
       </c>
       <c r="L9">
-        <v>7.489328669640545</v>
+        <v>7.562543202919299</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.24661109235206</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.3247608281632</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.90557081733238</v>
+        <v>25.23605341665055</v>
       </c>
       <c r="C10">
-        <v>6.975313161151167</v>
+        <v>20.29374472260276</v>
       </c>
       <c r="D10">
-        <v>5.211510853859502</v>
+        <v>7.404099910816409</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.61035955678172</v>
+        <v>29.97465130649273</v>
       </c>
       <c r="G10">
-        <v>40.83898143971826</v>
+        <v>37.1843425375555</v>
       </c>
       <c r="H10">
-        <v>12.86125581865615</v>
+        <v>2.039993440155637</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.229427982410668</v>
       </c>
       <c r="J10">
-        <v>6.174087188400303</v>
+        <v>11.39295501511405</v>
       </c>
       <c r="K10">
-        <v>14.33816320287703</v>
+        <v>15.60502477470091</v>
       </c>
       <c r="L10">
-        <v>7.752637922423461</v>
+        <v>7.732466551288343</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.88272004256302</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.63459812676534</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51677437745552</v>
+        <v>26.38036914547676</v>
       </c>
       <c r="C11">
-        <v>7.097435883999395</v>
+        <v>20.9323854786803</v>
       </c>
       <c r="D11">
-        <v>5.324122036790537</v>
+        <v>6.905985154965083</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.0129516527392</v>
+        <v>27.88731042910197</v>
       </c>
       <c r="G11">
-        <v>41.46589860629252</v>
+        <v>34.57758060475694</v>
       </c>
       <c r="H11">
-        <v>12.90503647112036</v>
+        <v>2.913913795726585</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.339264949610591</v>
       </c>
       <c r="J11">
-        <v>6.153820488679596</v>
+        <v>10.78033964277013</v>
       </c>
       <c r="K11">
-        <v>14.86030236108346</v>
+        <v>14.39581518560073</v>
       </c>
       <c r="L11">
-        <v>7.873532384359888</v>
+        <v>7.106358345607314</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.72012641249416</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.09236570033009</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.74489430877779</v>
+        <v>26.93574303429624</v>
       </c>
       <c r="C12">
-        <v>7.143270033273592</v>
+        <v>21.09224834927521</v>
       </c>
       <c r="D12">
-        <v>5.366450927083101</v>
+        <v>6.426608430925121</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.1685944907705</v>
+        <v>25.94659764150585</v>
       </c>
       <c r="G12">
-        <v>41.70773164277935</v>
+        <v>32.11376823783944</v>
       </c>
       <c r="H12">
-        <v>12.92309768771918</v>
+        <v>4.165166560459497</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.36228657171113</v>
       </c>
       <c r="J12">
-        <v>6.146452082678147</v>
+        <v>10.25184398858699</v>
       </c>
       <c r="K12">
-        <v>15.05418509160652</v>
+        <v>13.47099949449618</v>
       </c>
       <c r="L12">
-        <v>7.919446354973485</v>
+        <v>6.751544216024681</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.6589617396716</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.33926101135617</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.69591328623264</v>
+        <v>27.0864243054977</v>
       </c>
       <c r="C13">
-        <v>7.133417165944413</v>
+        <v>20.94250059221626</v>
       </c>
       <c r="D13">
-        <v>5.357349078696588</v>
+        <v>5.942252039154388</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.13493157876578</v>
+        <v>23.89773776878001</v>
       </c>
       <c r="G13">
-        <v>41.65545096033518</v>
+        <v>29.41873398694491</v>
       </c>
       <c r="H13">
-        <v>12.9191408108059</v>
+        <v>5.480822613814422</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.323207692295478</v>
       </c>
       <c r="J13">
-        <v>6.148025242858099</v>
+        <v>9.726455887592257</v>
       </c>
       <c r="K13">
-        <v>15.0125987002114</v>
+        <v>12.66297235579843</v>
       </c>
       <c r="L13">
-        <v>7.90955239655861</v>
+        <v>6.605548786151481</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.67211685745447</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.36812570070306</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53560889431424</v>
+        <v>27.01096004630153</v>
       </c>
       <c r="C14">
-        <v>7.101214945999298</v>
+        <v>20.70463219318372</v>
       </c>
       <c r="D14">
-        <v>5.327610925562561</v>
+        <v>5.609130764897752</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.02569234742714</v>
+        <v>22.39632248949631</v>
       </c>
       <c r="G14">
-        <v>41.48570535009797</v>
+        <v>27.38006676808055</v>
       </c>
       <c r="H14">
-        <v>12.90649225872665</v>
+        <v>6.451965325230703</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.269041116128502</v>
       </c>
       <c r="J14">
-        <v>6.153208098963966</v>
+        <v>9.357852063617198</v>
       </c>
       <c r="K14">
-        <v>14.87632978865736</v>
+        <v>12.15958859369972</v>
       </c>
       <c r="L14">
-        <v>7.877307212725173</v>
+        <v>6.635655390859857</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.71508631772853</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.57862461601825</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.43698302825718</v>
+        <v>26.90439904482873</v>
       </c>
       <c r="C15">
-        <v>7.081436512044993</v>
+        <v>20.59082706401993</v>
       </c>
       <c r="D15">
-        <v>5.309353642733326</v>
+        <v>5.525742910868213</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.95919664418289</v>
+        <v>21.992916200666</v>
       </c>
       <c r="G15">
-        <v>41.38230940426103</v>
+        <v>26.8026765422872</v>
       </c>
       <c r="H15">
-        <v>12.89893983123631</v>
+        <v>6.692647896821864</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.243212638685987</v>
       </c>
       <c r="J15">
-        <v>6.156422880156683</v>
+        <v>9.263899785135038</v>
       </c>
       <c r="K15">
-        <v>14.79236303106331</v>
+        <v>12.05106086263071</v>
       </c>
       <c r="L15">
-        <v>7.857572803977756</v>
+        <v>6.656054545136228</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.74145872558527</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.34137653014719</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.86516367756361</v>
+        <v>26.04764690201142</v>
       </c>
       <c r="C16">
-        <v>6.96727486043724</v>
+        <v>19.95657712677705</v>
       </c>
       <c r="D16">
-        <v>5.20410902407981</v>
+        <v>5.464646830479875</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.58449367674951</v>
+        <v>21.83956019871656</v>
       </c>
       <c r="G16">
-        <v>40.79862980704002</v>
+        <v>26.42353126029859</v>
       </c>
       <c r="H16">
-        <v>12.85859821900379</v>
+        <v>6.489429257345769</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.108736036006049</v>
       </c>
       <c r="J16">
-        <v>6.175454032113219</v>
+        <v>9.284128878869771</v>
       </c>
       <c r="K16">
-        <v>14.30349923389914</v>
+        <v>12.24235605400445</v>
       </c>
       <c r="L16">
-        <v>7.744757289923323</v>
+        <v>6.598999210402054</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.89340365670346</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.93326619340148</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.50849051556526</v>
+        <v>25.41617892483092</v>
       </c>
       <c r="C17">
-        <v>6.896513167619384</v>
+        <v>19.59346941204513</v>
       </c>
       <c r="D17">
-        <v>5.139016438254508</v>
+        <v>5.595057096064079</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.36026944155076</v>
+        <v>22.53320012257839</v>
       </c>
       <c r="G17">
-        <v>40.44842867764831</v>
+        <v>27.25368399591729</v>
       </c>
       <c r="H17">
-        <v>12.83641438776591</v>
+        <v>5.75108016569343</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.034248488502907</v>
       </c>
       <c r="J17">
-        <v>6.187665097189488</v>
+        <v>9.495122047544553</v>
       </c>
       <c r="K17">
-        <v>13.99668744589244</v>
+        <v>12.64278291513061</v>
       </c>
       <c r="L17">
-        <v>7.675814374089615</v>
+        <v>6.516722863479303</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.98735828334788</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.05596174103021</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.30119915379303</v>
+        <v>24.92222650451572</v>
       </c>
       <c r="C18">
-        <v>6.855547639940158</v>
+        <v>19.40612442955405</v>
       </c>
       <c r="D18">
-        <v>5.101392912364487</v>
+        <v>5.924079622401949</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.23336432740483</v>
+        <v>24.07716272719995</v>
       </c>
       <c r="G18">
-        <v>40.249885200255</v>
+        <v>29.2810119125196</v>
       </c>
       <c r="H18">
-        <v>12.82457463811165</v>
+        <v>4.484057251872286</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.001943592019321</v>
       </c>
       <c r="J18">
-        <v>6.194882913441541</v>
+        <v>9.909619835065566</v>
       </c>
       <c r="K18">
-        <v>13.81765754791885</v>
+        <v>13.32099682586704</v>
       </c>
       <c r="L18">
-        <v>7.636266491211419</v>
+        <v>6.530839666830561</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.04167644638751</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.64514568306412</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23064796784114</v>
+        <v>24.58063542971425</v>
       </c>
       <c r="C19">
-        <v>6.841632079119845</v>
+        <v>19.43428897590545</v>
       </c>
       <c r="D19">
-        <v>5.088623649906238</v>
+        <v>6.428426836633587</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.1907496190415</v>
+        <v>26.11115744042105</v>
       </c>
       <c r="G19">
-        <v>40.18315615077316</v>
+        <v>31.94386534092772</v>
       </c>
       <c r="H19">
-        <v>12.82072174794046</v>
+        <v>2.955708397053039</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.017033532427342</v>
       </c>
       <c r="J19">
-        <v>6.197359873451568</v>
+        <v>10.43365583761159</v>
       </c>
       <c r="K19">
-        <v>13.75659952142205</v>
+        <v>14.16091828396456</v>
       </c>
       <c r="L19">
-        <v>7.622895350733814</v>
+        <v>6.80227640842364</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.06011590593745</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.56747718941691</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.54668118393955</v>
+        <v>24.70401040850006</v>
       </c>
       <c r="C20">
-        <v>6.90407337637491</v>
+        <v>19.96089944598088</v>
       </c>
       <c r="D20">
-        <v>5.145964936396362</v>
+        <v>7.339843409235431</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.38392475023246</v>
+        <v>29.53039153902714</v>
       </c>
       <c r="G20">
-        <v>40.48540962485659</v>
+        <v>36.4675338024856</v>
       </c>
       <c r="H20">
-        <v>12.83868019077537</v>
+        <v>1.928078853004102</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.149492264218193</v>
       </c>
       <c r="J20">
-        <v>6.186345036709113</v>
+        <v>11.29206310510592</v>
       </c>
       <c r="K20">
-        <v>14.02961256327943</v>
+        <v>15.50455367206146</v>
       </c>
       <c r="L20">
-        <v>7.683142666547281</v>
+        <v>7.678320725951745</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.97732801124138</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.31661388253819</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58278485395399</v>
+        <v>26.16832796798814</v>
       </c>
       <c r="C21">
-        <v>7.110684703388372</v>
+        <v>21.17427730778014</v>
       </c>
       <c r="D21">
-        <v>5.33635450338955</v>
+        <v>7.704802537761942</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.05769169963568</v>
+        <v>30.84696556987909</v>
       </c>
       <c r="G21">
-        <v>41.53544321523489</v>
+        <v>38.39145763008387</v>
       </c>
       <c r="H21">
-        <v>12.91016664266115</v>
+        <v>2.263890404625721</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.412164402257593</v>
       </c>
       <c r="J21">
-        <v>6.151677388960018</v>
+        <v>11.55425905741773</v>
       </c>
       <c r="K21">
-        <v>14.91645895793566</v>
+        <v>15.68519063239852</v>
       </c>
       <c r="L21">
-        <v>7.8867749682543</v>
+        <v>7.954737554310694</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.70245426123005</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.47564687213735</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.24052282702871</v>
+        <v>27.1019549867824</v>
       </c>
       <c r="C22">
-        <v>7.243320845151054</v>
+        <v>21.89824853198567</v>
       </c>
       <c r="D22">
-        <v>5.458940531414144</v>
+        <v>7.888412951689194</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.51664797774868</v>
+        <v>31.60641414055363</v>
       </c>
       <c r="G22">
-        <v>42.24755540404828</v>
+        <v>39.5398825202798</v>
       </c>
       <c r="H22">
-        <v>12.96556170197045</v>
+        <v>2.472517971071543</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.576100566418591</v>
       </c>
       <c r="J22">
-        <v>6.130808992936449</v>
+        <v>11.71089024587967</v>
       </c>
       <c r="K22">
-        <v>15.47371399426683</v>
+        <v>15.78950153819432</v>
       </c>
       <c r="L22">
-        <v>8.020630472553462</v>
+        <v>8.085629376156966</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.52516725107836</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.13192625349913</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.89126387366979</v>
+        <v>26.61024937730192</v>
       </c>
       <c r="C23">
-        <v>7.172750694718364</v>
+        <v>21.48243863773839</v>
       </c>
       <c r="D23">
-        <v>5.3936919516343</v>
+        <v>7.78136590106804</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.26997959604706</v>
+        <v>31.25444529394413</v>
       </c>
       <c r="G23">
-        <v>41.86511246936735</v>
+        <v>39.02152800700156</v>
       </c>
       <c r="H23">
-        <v>12.93517889968332</v>
+        <v>2.362265727054836</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.485763204786143</v>
       </c>
       <c r="J23">
-        <v>6.141780194256055</v>
+        <v>11.64679182560042</v>
       </c>
       <c r="K23">
-        <v>15.1783193598956</v>
+        <v>15.77564749037697</v>
       </c>
       <c r="L23">
-        <v>7.949126792276763</v>
+        <v>8.018145241640335</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.6195783732608</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.77546746008351</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.52942214056129</v>
+        <v>24.6594852424319</v>
       </c>
       <c r="C24">
-        <v>6.900656289154244</v>
+        <v>19.89979541970017</v>
       </c>
       <c r="D24">
-        <v>5.142824143837902</v>
+        <v>7.381791241232715</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.37322394462964</v>
+        <v>29.82592392092982</v>
       </c>
       <c r="G24">
-        <v>40.46868184466308</v>
+        <v>36.88778922402719</v>
       </c>
       <c r="H24">
-        <v>12.83765297956571</v>
+        <v>1.936280435068147</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.144005412976542</v>
       </c>
       <c r="J24">
-        <v>6.186941221474799</v>
+        <v>11.38013786211831</v>
       </c>
       <c r="K24">
-        <v>14.01473534467938</v>
+        <v>15.67206775671478</v>
       </c>
       <c r="L24">
-        <v>7.679829268407509</v>
+        <v>7.75394445246677</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.98186175406432</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.38834762817719</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.97900133649157</v>
+        <v>22.37320454126802</v>
       </c>
       <c r="C25">
-        <v>6.597066951317343</v>
+        <v>18.06472936672259</v>
       </c>
       <c r="D25">
-        <v>4.8653528720526</v>
+        <v>6.931325729447346</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.48462509613856</v>
+        <v>28.26730407821544</v>
       </c>
       <c r="G25">
-        <v>39.07250163607358</v>
+        <v>34.54885259521473</v>
       </c>
       <c r="H25">
-        <v>12.76734492497062</v>
+        <v>1.663470033442485</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.766569938822027</v>
       </c>
       <c r="J25">
-        <v>6.243056194401697</v>
+        <v>11.10998871153247</v>
       </c>
       <c r="K25">
-        <v>12.66151390683741</v>
+        <v>15.59675904108172</v>
       </c>
       <c r="L25">
-        <v>7.39353725189454</v>
+        <v>7.45782408481162</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.38334186170619</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>17.78477964499093</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.53877667482739</v>
+        <v>20.52783081197137</v>
       </c>
       <c r="C2">
-        <v>16.50506307669639</v>
+        <v>17.18638257741448</v>
       </c>
       <c r="D2">
-        <v>6.557259145063981</v>
+        <v>6.814996643841067</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.25537796666447</v>
+        <v>26.01576502692929</v>
       </c>
       <c r="G2">
-        <v>33.06702133651286</v>
+        <v>30.3347858112122</v>
       </c>
       <c r="H2">
-        <v>2.036520874070443</v>
+        <v>2.013188971517976</v>
       </c>
       <c r="I2">
-        <v>2.473289703943972</v>
+        <v>2.548265574353185</v>
       </c>
       <c r="J2">
-        <v>10.97700704549722</v>
+        <v>10.92491101058391</v>
       </c>
       <c r="K2">
-        <v>15.67506821183321</v>
+        <v>14.64732173058201</v>
       </c>
       <c r="L2">
-        <v>7.235976196862745</v>
+        <v>12.57237275612415</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.152552746828718</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.214850683800668</v>
       </c>
       <c r="O2">
-        <v>16.4879901645545</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.7117939458162</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.19062109078062</v>
+        <v>19.20073712180515</v>
       </c>
       <c r="C3">
-        <v>15.42839477168413</v>
+        <v>15.9995424458704</v>
       </c>
       <c r="D3">
-        <v>6.308971762740765</v>
+        <v>6.551932409559767</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.48583942666551</v>
+        <v>25.39546153694208</v>
       </c>
       <c r="G3">
-        <v>31.90778559129744</v>
+        <v>29.45914967866457</v>
       </c>
       <c r="H3">
-        <v>2.301196216858096</v>
+        <v>2.261952693627808</v>
       </c>
       <c r="I3">
-        <v>2.68260360189834</v>
+        <v>2.579983710980748</v>
       </c>
       <c r="J3">
-        <v>10.86630978539966</v>
+        <v>10.82428178660563</v>
       </c>
       <c r="K3">
-        <v>15.68239512177634</v>
+        <v>14.75104719872304</v>
       </c>
       <c r="L3">
-        <v>7.076374054120435</v>
+        <v>12.72797842997284</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.154436089235231</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.073535809828231</v>
       </c>
       <c r="O3">
-        <v>15.56735128334576</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.76527772729895</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.31272731492888</v>
+        <v>18.33654415885113</v>
       </c>
       <c r="C4">
-        <v>14.73387830137894</v>
+        <v>15.23244202376663</v>
       </c>
       <c r="D4">
-        <v>6.152683547421105</v>
+        <v>6.386682712214112</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.01034287568801</v>
+        <v>25.01235733925921</v>
       </c>
       <c r="G4">
-        <v>31.18833953858285</v>
+        <v>28.92155651049038</v>
       </c>
       <c r="H4">
-        <v>2.4691900043429</v>
+        <v>2.419961552739668</v>
       </c>
       <c r="I4">
-        <v>2.816076153746951</v>
+        <v>2.695787379868321</v>
       </c>
       <c r="J4">
-        <v>10.80151126676526</v>
+        <v>10.76253617517786</v>
       </c>
       <c r="K4">
-        <v>15.69187466761134</v>
+        <v>14.8178404864816</v>
       </c>
       <c r="L4">
-        <v>6.975319757743232</v>
+        <v>12.82308914958422</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.178026838613311</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.984101795761859</v>
       </c>
       <c r="O4">
-        <v>14.97597864403933</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.15675061232328</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.9413497519618</v>
+        <v>17.9710337879059</v>
       </c>
       <c r="C5">
-        <v>14.45395187437781</v>
+        <v>14.92096818474402</v>
       </c>
       <c r="D5">
-        <v>6.091059924277785</v>
+        <v>6.321232932882436</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.79987520044755</v>
+        <v>24.84117142790691</v>
       </c>
       <c r="G5">
-        <v>30.86390565732545</v>
+        <v>28.67552176621284</v>
       </c>
       <c r="H5">
-        <v>2.539312430846258</v>
+        <v>2.485930748334067</v>
       </c>
       <c r="I5">
-        <v>2.874753670346182</v>
+        <v>2.747712740987502</v>
       </c>
       <c r="J5">
-        <v>10.77036408377339</v>
+        <v>10.73245250710285</v>
       </c>
       <c r="K5">
-        <v>15.68573133838043</v>
+        <v>14.83618804743268</v>
       </c>
       <c r="L5">
-        <v>6.932717770548385</v>
+        <v>12.85339806826356</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.187070619276987</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.946397514560555</v>
       </c>
       <c r="O5">
-        <v>14.73155100623749</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.90477281426016</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87772270314415</v>
+        <v>17.90847912405936</v>
       </c>
       <c r="C6">
-        <v>14.42105455892158</v>
+        <v>14.88187452247488</v>
       </c>
       <c r="D6">
-        <v>6.084426798158399</v>
+        <v>6.313696168459375</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.74514112008069</v>
+        <v>24.79483716492224</v>
       </c>
       <c r="G6">
-        <v>30.77363725448075</v>
+        <v>28.60150479240306</v>
       </c>
       <c r="H6">
-        <v>2.551356295680736</v>
+        <v>2.497249023120436</v>
       </c>
       <c r="I6">
-        <v>2.888473428922371</v>
+        <v>2.760987939159447</v>
       </c>
       <c r="J6">
-        <v>10.75848257373804</v>
+        <v>10.7214274956161</v>
       </c>
       <c r="K6">
-        <v>15.67111311006805</v>
+        <v>14.82756468659717</v>
       </c>
       <c r="L6">
-        <v>6.92479401194543</v>
+        <v>12.84824426513198</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.181453674547406</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.939371743293861</v>
       </c>
       <c r="O6">
-        <v>14.69422753130677</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.86587169938269</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.30458356332594</v>
+        <v>18.32829917579168</v>
       </c>
       <c r="C7">
-        <v>14.76770178831975</v>
+        <v>15.25234579288513</v>
       </c>
       <c r="D7">
-        <v>6.161696546482641</v>
+        <v>6.401209376424995</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.95407244456814</v>
+        <v>24.93312518581519</v>
       </c>
       <c r="G7">
-        <v>31.08596883189793</v>
+        <v>28.8940636128454</v>
       </c>
       <c r="H7">
-        <v>2.470974712001032</v>
+        <v>2.422258167335734</v>
       </c>
       <c r="I7">
-        <v>2.827242048309901</v>
+        <v>2.709364361210699</v>
       </c>
       <c r="J7">
-        <v>10.78271141491553</v>
+        <v>10.69344282620929</v>
       </c>
       <c r="K7">
-        <v>15.65448036269285</v>
+        <v>14.77238357015054</v>
       </c>
       <c r="L7">
-        <v>6.972580773457215</v>
+        <v>12.78447063214439</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.148075037388228</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.981000749941139</v>
       </c>
       <c r="O7">
-        <v>14.9824519916627</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.16256455406093</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.08040492071911</v>
+        <v>20.0756264702158</v>
       </c>
       <c r="C8">
-        <v>16.18660343721107</v>
+        <v>16.79392254578252</v>
       </c>
       <c r="D8">
-        <v>6.484895512647921</v>
+        <v>6.756743044423663</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.92261940881371</v>
+        <v>25.64918269052922</v>
       </c>
       <c r="G8">
-        <v>32.545020236163</v>
+        <v>30.13019838600515</v>
       </c>
       <c r="H8">
-        <v>2.127716187987731</v>
+        <v>2.100854548060485</v>
       </c>
       <c r="I8">
-        <v>2.558073984509447</v>
+        <v>2.490770897823511</v>
       </c>
       <c r="J8">
-        <v>10.91425279094442</v>
+        <v>10.69886546450716</v>
       </c>
       <c r="K8">
-        <v>15.6273833255753</v>
+        <v>14.59552478435211</v>
       </c>
       <c r="L8">
-        <v>7.178836581566647</v>
+        <v>12.55668728659878</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.085080981695247</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.162247334428742</v>
       </c>
       <c r="O8">
-        <v>16.18802481495645</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.40288856446623</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.17260018741651</v>
+        <v>23.11828969383603</v>
       </c>
       <c r="C9">
-        <v>18.64539888595994</v>
+        <v>19.49900654172733</v>
       </c>
       <c r="D9">
-        <v>7.070034178042893</v>
+        <v>7.383182195670976</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.88063787031379</v>
+        <v>27.21854304872824</v>
       </c>
       <c r="G9">
-        <v>35.49620901747758</v>
+        <v>32.45587809221389</v>
       </c>
       <c r="H9">
-        <v>1.624153837018576</v>
+        <v>1.612190094390571</v>
       </c>
       <c r="I9">
-        <v>2.890615245568459</v>
+        <v>2.910298367957251</v>
       </c>
       <c r="J9">
-        <v>11.2300906665105</v>
+        <v>10.92750704722209</v>
       </c>
       <c r="K9">
-        <v>15.6834243086742</v>
+        <v>14.38228878982027</v>
       </c>
       <c r="L9">
-        <v>7.562543202919299</v>
+        <v>12.19298298973766</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.219126389098294</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.501981925715503</v>
       </c>
       <c r="O9">
-        <v>18.3247608281632</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.59780261431963</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.23605341665055</v>
+        <v>25.1474992354383</v>
       </c>
       <c r="C10">
-        <v>20.29374472260276</v>
+        <v>21.23769582563373</v>
       </c>
       <c r="D10">
-        <v>7.404099910816409</v>
+        <v>7.769983367104254</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.97465130649273</v>
+        <v>27.92813884762858</v>
       </c>
       <c r="G10">
-        <v>37.1843425375555</v>
+        <v>34.12149924847623</v>
       </c>
       <c r="H10">
-        <v>2.039993440155637</v>
+        <v>1.998639194949817</v>
       </c>
       <c r="I10">
-        <v>3.229427982410668</v>
+        <v>3.201552127363564</v>
       </c>
       <c r="J10">
-        <v>11.39295501511405</v>
+        <v>10.74586985230488</v>
       </c>
       <c r="K10">
-        <v>15.60502477470091</v>
+        <v>14.05522426986131</v>
       </c>
       <c r="L10">
-        <v>7.732466551288343</v>
+        <v>11.79383921831303</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.26684142308976</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.640990323700364</v>
       </c>
       <c r="O10">
-        <v>19.63459812676534</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.93957852185046</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.38036914547676</v>
+        <v>26.28777550530008</v>
       </c>
       <c r="C11">
-        <v>20.9323854786803</v>
+        <v>21.68050168076827</v>
       </c>
       <c r="D11">
-        <v>6.905985154965083</v>
+        <v>7.27515603462159</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.88731042910197</v>
+        <v>25.71690574444186</v>
       </c>
       <c r="G11">
-        <v>34.57758060475694</v>
+        <v>32.53308061973968</v>
       </c>
       <c r="H11">
-        <v>2.913913795726585</v>
+        <v>2.876754756592474</v>
       </c>
       <c r="I11">
-        <v>3.339264949610591</v>
+        <v>3.294368975966116</v>
       </c>
       <c r="J11">
-        <v>10.78033964277013</v>
+        <v>9.683321108862469</v>
       </c>
       <c r="K11">
-        <v>14.39581518560073</v>
+        <v>12.91129468590755</v>
       </c>
       <c r="L11">
-        <v>7.106358345607314</v>
+        <v>10.97028374820285</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.420162236470045</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.016384964521764</v>
       </c>
       <c r="O11">
-        <v>19.09236570033009</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.37153916276216</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93574303429624</v>
+        <v>26.84742726993172</v>
       </c>
       <c r="C12">
-        <v>21.09224834927521</v>
+        <v>21.68749052072927</v>
       </c>
       <c r="D12">
-        <v>6.426608430925121</v>
+        <v>6.761752562961157</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.94659764150585</v>
+        <v>23.841538005332</v>
       </c>
       <c r="G12">
-        <v>32.11376823783944</v>
+        <v>30.71875121798652</v>
       </c>
       <c r="H12">
-        <v>4.165166560459497</v>
+        <v>4.138484579962166</v>
       </c>
       <c r="I12">
-        <v>3.36228657171113</v>
+        <v>3.312274727358824</v>
       </c>
       <c r="J12">
-        <v>10.25184398858699</v>
+        <v>9.053989992702848</v>
       </c>
       <c r="K12">
-        <v>13.47099949449618</v>
+        <v>12.14843445769638</v>
       </c>
       <c r="L12">
-        <v>6.751544216024681</v>
+        <v>10.47314097573298</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.777276837466528</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.6715994639179</v>
       </c>
       <c r="O12">
-        <v>18.33926101135617</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.59058167044329</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.0864243054977</v>
+        <v>27.01002233694115</v>
       </c>
       <c r="C13">
-        <v>20.94250059221626</v>
+        <v>21.42233432511646</v>
       </c>
       <c r="D13">
-        <v>5.942252039154388</v>
+        <v>6.20345620124622</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.89773776878001</v>
+        <v>22.07608095224377</v>
       </c>
       <c r="G13">
-        <v>29.41873398694491</v>
+        <v>28.30035905429458</v>
       </c>
       <c r="H13">
-        <v>5.480822613814422</v>
+        <v>5.463164205660592</v>
       </c>
       <c r="I13">
-        <v>3.323207692295478</v>
+        <v>3.27958890884618</v>
       </c>
       <c r="J13">
-        <v>9.726455887592257</v>
+        <v>8.754500501209854</v>
       </c>
       <c r="K13">
-        <v>12.66297235579843</v>
+        <v>11.60942340247969</v>
       </c>
       <c r="L13">
-        <v>6.605548786151481</v>
+        <v>10.15408186618057</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.247976629150848</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.543647159175582</v>
       </c>
       <c r="O13">
-        <v>17.36812570070306</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.58591189083015</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.01096004630153</v>
+        <v>26.94638430283909</v>
       </c>
       <c r="C14">
-        <v>20.70463219318372</v>
+        <v>21.11733654837934</v>
       </c>
       <c r="D14">
-        <v>5.609130764897752</v>
+        <v>5.804699629174761</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.39632248949631</v>
+        <v>20.86897225525543</v>
       </c>
       <c r="G14">
-        <v>27.38006676808055</v>
+        <v>26.297149597033</v>
       </c>
       <c r="H14">
-        <v>6.451965325230703</v>
+        <v>6.461451737378654</v>
       </c>
       <c r="I14">
-        <v>3.269041116128502</v>
+        <v>3.235302710230098</v>
       </c>
       <c r="J14">
-        <v>9.357852063617198</v>
+        <v>8.667020677728974</v>
       </c>
       <c r="K14">
-        <v>12.15958859369972</v>
+        <v>11.32901843736802</v>
       </c>
       <c r="L14">
-        <v>6.635655390859857</v>
+        <v>9.998850313723732</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.933436354341742</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.58885868624244</v>
       </c>
       <c r="O14">
-        <v>16.57862461601825</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.76952880795522</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90439904482873</v>
+        <v>26.84440546287711</v>
       </c>
       <c r="C15">
-        <v>20.59082706401993</v>
+        <v>20.99262621007171</v>
       </c>
       <c r="D15">
-        <v>5.525742910868213</v>
+        <v>5.700606774374109</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.992916200666</v>
+        <v>20.5782197709343</v>
       </c>
       <c r="G15">
-        <v>26.8026765422872</v>
+        <v>25.66362827061543</v>
       </c>
       <c r="H15">
-        <v>6.692647896821864</v>
+        <v>6.70132306234746</v>
       </c>
       <c r="I15">
-        <v>3.243212638685987</v>
+        <v>3.21487454250772</v>
       </c>
       <c r="J15">
-        <v>9.263899785135038</v>
+        <v>8.693046329384103</v>
       </c>
       <c r="K15">
-        <v>12.05106086263071</v>
+        <v>11.29041672363759</v>
       </c>
       <c r="L15">
-        <v>6.656054545136228</v>
+        <v>9.980831981682044</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.872853451804092</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.614201092199268</v>
       </c>
       <c r="O15">
-        <v>16.34137653014719</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.52412126120884</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04764690201142</v>
+        <v>26.00270088098746</v>
       </c>
       <c r="C16">
-        <v>19.95657712677705</v>
+        <v>20.40949634766956</v>
       </c>
       <c r="D16">
-        <v>5.464646830479875</v>
+        <v>5.600498202021361</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.83956019871656</v>
+        <v>20.74984449754064</v>
       </c>
       <c r="G16">
-        <v>26.42353126029859</v>
+        <v>24.74227687295548</v>
       </c>
       <c r="H16">
-        <v>6.489429257345769</v>
+        <v>6.495658379752345</v>
       </c>
       <c r="I16">
-        <v>3.108736036006049</v>
+        <v>3.104515118679472</v>
       </c>
       <c r="J16">
-        <v>9.284128878869771</v>
+        <v>9.148106925226655</v>
       </c>
       <c r="K16">
-        <v>12.24235605400445</v>
+        <v>11.6040221240397</v>
       </c>
       <c r="L16">
-        <v>6.598999210402054</v>
+        <v>10.19383734009445</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.061198030239946</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.570497909044128</v>
       </c>
       <c r="O16">
-        <v>15.93326619340148</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.10474519918494</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.41617892483092</v>
+        <v>25.37603211866613</v>
       </c>
       <c r="C17">
-        <v>19.59346941204513</v>
+        <v>20.11059185759689</v>
       </c>
       <c r="D17">
-        <v>5.595057096064079</v>
+        <v>5.736311203742261</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.53320012257839</v>
+        <v>21.50303764198488</v>
       </c>
       <c r="G17">
-        <v>27.25368399591729</v>
+        <v>25.22479755363227</v>
       </c>
       <c r="H17">
-        <v>5.75108016569343</v>
+        <v>5.75625273522887</v>
       </c>
       <c r="I17">
-        <v>3.034248488502907</v>
+        <v>3.042722170793887</v>
       </c>
       <c r="J17">
-        <v>9.495122047544553</v>
+        <v>9.510400766003663</v>
       </c>
       <c r="K17">
-        <v>12.64278291513061</v>
+        <v>11.98256312029828</v>
       </c>
       <c r="L17">
-        <v>6.516722863479303</v>
+        <v>10.45031662856619</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.348779922236641</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.490855905068704</v>
       </c>
       <c r="O17">
-        <v>16.05596174103021</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.2340556608174</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.92222650451572</v>
+        <v>24.87881814169823</v>
       </c>
       <c r="C18">
-        <v>19.40612442955405</v>
+        <v>20.02598406982728</v>
       </c>
       <c r="D18">
-        <v>5.924079622401949</v>
+        <v>6.099612652093341</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.07716272719995</v>
+        <v>22.93489238290568</v>
       </c>
       <c r="G18">
-        <v>29.2810119125196</v>
+        <v>26.89225627539606</v>
       </c>
       <c r="H18">
-        <v>4.484057251872286</v>
+        <v>4.489797956502198</v>
       </c>
       <c r="I18">
-        <v>3.001943592019321</v>
+        <v>3.014020433918286</v>
       </c>
       <c r="J18">
-        <v>9.909619835065566</v>
+        <v>9.929189038729792</v>
       </c>
       <c r="K18">
-        <v>13.32099682586704</v>
+        <v>12.52754796710202</v>
       </c>
       <c r="L18">
-        <v>6.530839666830561</v>
+        <v>10.82345835611268</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.79963828689509</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.498148634090935</v>
       </c>
       <c r="O18">
-        <v>16.64514568306412</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.84661429649989</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.58063542971425</v>
+        <v>24.52816368321854</v>
       </c>
       <c r="C19">
-        <v>19.43428897590545</v>
+        <v>20.18198346301188</v>
       </c>
       <c r="D19">
-        <v>6.428426836633587</v>
+        <v>6.655792287660939</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.11115744042105</v>
+        <v>24.75703477569046</v>
       </c>
       <c r="G19">
-        <v>31.94386534092772</v>
+        <v>29.17056781671128</v>
       </c>
       <c r="H19">
-        <v>2.955708397053039</v>
+        <v>2.964961552480553</v>
       </c>
       <c r="I19">
-        <v>3.017033532427342</v>
+        <v>3.027514759714792</v>
       </c>
       <c r="J19">
-        <v>10.43365583761159</v>
+        <v>10.3772214658578</v>
       </c>
       <c r="K19">
-        <v>14.16091828396456</v>
+        <v>13.16452460046131</v>
       </c>
       <c r="L19">
-        <v>6.80227640842364</v>
+        <v>11.26218820287957</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.341138594247791</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.75480083920186</v>
       </c>
       <c r="O19">
-        <v>17.56747718941691</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.80224699714173</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.70401040850006</v>
+        <v>24.62617957745083</v>
       </c>
       <c r="C20">
-        <v>19.96089944598088</v>
+        <v>20.90587966794396</v>
       </c>
       <c r="D20">
-        <v>7.339843409235431</v>
+        <v>7.670701289632263</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.53039153902714</v>
+        <v>27.68891815009687</v>
       </c>
       <c r="G20">
-        <v>36.4675338024856</v>
+        <v>33.22616128867029</v>
       </c>
       <c r="H20">
-        <v>1.928078853004102</v>
+        <v>1.896499473921187</v>
       </c>
       <c r="I20">
-        <v>3.149492264218193</v>
+        <v>3.139591830559264</v>
       </c>
       <c r="J20">
-        <v>11.29206310510592</v>
+        <v>10.91816865163662</v>
       </c>
       <c r="K20">
-        <v>15.50455367206146</v>
+        <v>14.08842419722635</v>
       </c>
       <c r="L20">
-        <v>7.678320725951745</v>
+        <v>11.86257958216919</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.204418192424558</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.597338970852617</v>
       </c>
       <c r="O20">
-        <v>19.31661388253819</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.61086139233643</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.16832796798814</v>
+        <v>26.05652668727657</v>
       </c>
       <c r="C21">
-        <v>21.17427730778014</v>
+        <v>22.05569070877851</v>
       </c>
       <c r="D21">
-        <v>7.704802537761942</v>
+        <v>8.189507231054353</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.84696556987909</v>
+        <v>28.1978223066144</v>
       </c>
       <c r="G21">
-        <v>38.39145763008387</v>
+        <v>36.13286022467688</v>
       </c>
       <c r="H21">
-        <v>2.263890404625721</v>
+        <v>2.199537777531508</v>
       </c>
       <c r="I21">
-        <v>3.412164402257593</v>
+        <v>3.354791128909233</v>
       </c>
       <c r="J21">
-        <v>11.55425905741773</v>
+        <v>10.00769809083929</v>
       </c>
       <c r="K21">
-        <v>15.68519063239852</v>
+        <v>13.77121890520585</v>
       </c>
       <c r="L21">
-        <v>7.954737554310694</v>
+        <v>11.51699821358482</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.204791197228097</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.838511755233236</v>
       </c>
       <c r="O21">
-        <v>20.47564687213735</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.80227093813431</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.1019549867824</v>
+        <v>26.96873393664274</v>
       </c>
       <c r="C22">
-        <v>21.89824853198567</v>
+        <v>22.72297883524168</v>
       </c>
       <c r="D22">
-        <v>7.888412951689194</v>
+        <v>8.476424493947532</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.60641414055363</v>
+        <v>28.41728766375697</v>
       </c>
       <c r="G22">
-        <v>39.5398825202798</v>
+        <v>38.01261977898759</v>
       </c>
       <c r="H22">
-        <v>2.472517971071543</v>
+        <v>2.387248879968412</v>
       </c>
       <c r="I22">
-        <v>3.576100566418591</v>
+        <v>3.487116225915707</v>
       </c>
       <c r="J22">
-        <v>11.71089024587967</v>
+        <v>9.375124631660043</v>
       </c>
       <c r="K22">
-        <v>15.78950153819432</v>
+        <v>13.5355468181032</v>
       </c>
       <c r="L22">
-        <v>8.085629376156966</v>
+        <v>11.27620268084602</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.192109549853864</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.947848496678519</v>
       </c>
       <c r="O22">
-        <v>21.13192625349913</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.47664911598219</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.61024937730192</v>
+        <v>26.48887522289682</v>
       </c>
       <c r="C23">
-        <v>21.48243863773839</v>
+        <v>22.3607008216302</v>
       </c>
       <c r="D23">
-        <v>7.78136590106804</v>
+        <v>8.300599037450018</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.25444529394413</v>
+        <v>28.41181086363963</v>
       </c>
       <c r="G23">
-        <v>39.02152800700156</v>
+        <v>36.9472226530278</v>
       </c>
       <c r="H23">
-        <v>2.362265727054836</v>
+        <v>2.289114889854175</v>
       </c>
       <c r="I23">
-        <v>3.485763204786143</v>
+        <v>3.41332206742124</v>
       </c>
       <c r="J23">
-        <v>11.64679182560042</v>
+        <v>9.839003307300473</v>
       </c>
       <c r="K23">
-        <v>15.77564749037697</v>
+        <v>13.73019767746374</v>
       </c>
       <c r="L23">
-        <v>8.018145241640335</v>
+        <v>11.44822090694883</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.258674081295785</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.892616482419988</v>
       </c>
       <c r="O23">
-        <v>20.77546746008351</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.11108833134957</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.6594852424319</v>
+        <v>24.58049414538054</v>
       </c>
       <c r="C24">
-        <v>19.89979541970017</v>
+        <v>20.8616275988339</v>
       </c>
       <c r="D24">
-        <v>7.381791241232715</v>
+        <v>7.718135939054023</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.82592392092982</v>
+        <v>27.95892915932834</v>
       </c>
       <c r="G24">
-        <v>36.88778922402719</v>
+        <v>33.58672778127602</v>
       </c>
       <c r="H24">
-        <v>1.936280435068147</v>
+        <v>1.904316556700195</v>
       </c>
       <c r="I24">
-        <v>3.144005412976542</v>
+        <v>3.131790232094512</v>
       </c>
       <c r="J24">
-        <v>11.38013786211831</v>
+        <v>11.00059961773386</v>
       </c>
       <c r="K24">
-        <v>15.67206775671478</v>
+        <v>14.22468557328627</v>
       </c>
       <c r="L24">
-        <v>7.75394445246677</v>
+        <v>11.95809370672235</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.316213567770285</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.671288898811862</v>
       </c>
       <c r="O24">
-        <v>19.38834762817719</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.68698477389815</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.37320454126802</v>
+        <v>22.33271191130455</v>
       </c>
       <c r="C25">
-        <v>18.06472936672259</v>
+        <v>18.86538512135446</v>
       </c>
       <c r="D25">
-        <v>6.931325729447346</v>
+        <v>7.224208115438484</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.26730407821544</v>
+        <v>26.75479026383341</v>
       </c>
       <c r="G25">
-        <v>34.54885259521473</v>
+        <v>31.59701059222068</v>
       </c>
       <c r="H25">
-        <v>1.663470033442485</v>
+        <v>1.664303852091878</v>
       </c>
       <c r="I25">
-        <v>2.766569938822027</v>
+        <v>2.806329723889473</v>
       </c>
       <c r="J25">
-        <v>11.10998871153247</v>
+        <v>10.90934873985506</v>
       </c>
       <c r="K25">
-        <v>15.59675904108172</v>
+        <v>14.40014870599243</v>
       </c>
       <c r="L25">
-        <v>7.45782408481162</v>
+        <v>12.26528293079754</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.133378292557298</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.409966625092109</v>
       </c>
       <c r="O25">
-        <v>17.78477964499093</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.0417073570724</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
